--- a/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C7897B-709B-446B-85DB-3758179BB306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC6701A-DE51-4399-A4A0-32E388ADC145}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -193,6 +193,245 @@
   </si>
   <si>
     <t>リスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ドロワーメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>drawer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>list_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>list_genre</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>list_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>list_address</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スポット名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スポット住所</t>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LIST</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GENRE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>目的地</t>
+    <rPh sb="0" eb="3">
+      <t>モクテキチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>destination</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>search_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>genre1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>genre2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>genre3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>genre4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索日付</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジャンル１</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジャンル２</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジャンル３</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジャンル４</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>radio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>search_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>search_address</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索スポット名</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索スポット住所</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>search_button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>search_execute</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索実行</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モーダルウィンドウで確認</t>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>placeholderで入力例を記述</t>
+    <rPh sb="12" eb="15">
+      <t>ニュウリョクレイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キジュツ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -4005,15 +4244,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>59017</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>147917</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>39221</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4028,8 +4267,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914900" y="2095500"/>
-          <a:ext cx="596900" cy="412750"/>
+          <a:off x="4885017" y="2144059"/>
+          <a:ext cx="596900" cy="420221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4063,7 +4302,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>8</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
             <a:solidFill>
@@ -4101,8 +4340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4965700" y="2381250"/>
-          <a:ext cx="1803400" cy="412750"/>
+          <a:off x="4965700" y="2426074"/>
+          <a:ext cx="1803400" cy="420220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4136,7 +4375,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" baseline="0">
@@ -4144,7 +4383,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>  </a:t>
+            <a:t>   </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0">
@@ -4152,7 +4391,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10</a:t>
+            <a:t>9</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
@@ -4160,7 +4399,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 11 12</a:t>
+            <a:t>  10  11</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
             <a:solidFill>
@@ -4233,7 +4472,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>13</a:t>
+            <a:t>12</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
             <a:solidFill>
@@ -4306,7 +4545,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>14</a:t>
+            <a:t>13</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
             <a:solidFill>
@@ -4379,7 +4618,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>15</a:t>
+            <a:t>14</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
             <a:solidFill>
@@ -4452,7 +4691,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>16</a:t>
+            <a:t>15</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
             <a:solidFill>
@@ -4815,79 +5054,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>178547</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104588</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>13447</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>136338</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="テキスト ボックス 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4252A2-CC4F-48BE-82C7-270952D8472A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4496547" y="1464235"/>
-          <a:ext cx="596900" cy="420221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -5052,6 +5218,258 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>172356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABEFE2E7-731B-480B-B725-D9E0ED1A9030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="553357" y="7873999"/>
+          <a:ext cx="9062357" cy="5442857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「１　ドロワーメニュー」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ドロワーメニューが表示される</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「２　リスト詳細」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リストの詳細が表示される</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「３　リスト目的地」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マップ画面に遷移し、ボタンを押したリストのスポットを目的地に設定する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「４　絞り込み」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>絞り込み画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「５　更新」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>そのリストに記載されているテキストに更新する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「６　削除」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除確認モーダルを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「８９１０１１　ジャンル」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ジャンルをラジオボタンで選択できる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「１４　検索」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>記述した検索条件を元にデータベースでデータを選択し、リスト画面に遷移し、その結果を表示させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「１５　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>×</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボタン」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リスト画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5381,10 +5799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU47" sqref="AU47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8590,19 +9008,29 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="13">
+        <v>1</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
+      <c r="H79" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
-      <c r="L79" s="14"/>
+      <c r="L79" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
-      <c r="O79" s="14"/>
+      <c r="O79" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="17"/>
@@ -8617,7 +9045,9 @@
       <c r="AA79" s="14"/>
       <c r="AB79" s="15"/>
       <c r="AC79" s="17"/>
-      <c r="AD79" s="14"/>
+      <c r="AD79" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="AE79" s="15"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="15"/>
@@ -8632,19 +9062,29 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="13">
+        <v>2</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
+      <c r="H80" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
-      <c r="L80" s="14"/>
+      <c r="L80" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
-      <c r="O80" s="14"/>
+      <c r="O80" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
       <c r="R80" s="17"/>
@@ -8652,11 +9092,15 @@
       <c r="T80" s="17"/>
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
-      <c r="W80" s="14"/>
+      <c r="W80" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
-      <c r="AA80" s="14"/>
+      <c r="AA80" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
       <c r="AD80" s="14"/>
@@ -8674,19 +9118,29 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
+      <c r="C81" s="13">
+        <v>2</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
+      <c r="H81" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
-      <c r="L81" s="14"/>
+      <c r="L81" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
-      <c r="O81" s="14"/>
+      <c r="O81" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
       <c r="R81" s="17"/>
@@ -8694,11 +9148,15 @@
       <c r="T81" s="17"/>
       <c r="U81" s="14"/>
       <c r="V81" s="17"/>
-      <c r="W81" s="14"/>
+      <c r="W81" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
-      <c r="AA81" s="14"/>
+      <c r="AA81" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
       <c r="AD81" s="14"/>
@@ -8716,19 +9174,29 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
+      <c r="C82" s="13">
+        <v>2</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
+      <c r="H82" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
-      <c r="L82" s="14"/>
+      <c r="L82" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
-      <c r="O82" s="14"/>
+      <c r="O82" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
       <c r="R82" s="17"/>
@@ -8736,11 +9204,15 @@
       <c r="T82" s="17"/>
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
-      <c r="W82" s="14"/>
+      <c r="W82" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
-      <c r="AA82" s="14"/>
+      <c r="AA82" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
       <c r="AD82" s="14"/>
@@ -8758,19 +9230,29 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
+      <c r="C83" s="13">
+        <v>2</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
+      <c r="H83" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
-      <c r="L83" s="14"/>
+      <c r="L83" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
-      <c r="O83" s="14"/>
+      <c r="O83" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="17"/>
@@ -8778,11 +9260,15 @@
       <c r="T83" s="17"/>
       <c r="U83" s="14"/>
       <c r="V83" s="17"/>
-      <c r="W83" s="14"/>
+      <c r="W83" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
-      <c r="AA83" s="14"/>
+      <c r="AA83" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
       <c r="AD83" s="14"/>
@@ -8800,19 +9286,29 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
+      <c r="C84" s="13">
+        <v>3</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
+      <c r="H84" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
-      <c r="L84" s="14"/>
+      <c r="L84" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
-      <c r="O84" s="14"/>
+      <c r="O84" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
       <c r="R84" s="17"/>
@@ -8842,19 +9338,29 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
+      <c r="C85" s="13">
+        <v>4</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
+      <c r="H85" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
-      <c r="L85" s="14"/>
+      <c r="L85" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
-      <c r="O85" s="14"/>
+      <c r="O85" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
       <c r="R85" s="17"/>
@@ -8884,19 +9390,29 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
+      <c r="C86" s="13">
+        <v>5</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
-      <c r="L86" s="14"/>
+      <c r="L86" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
-      <c r="O86" s="14"/>
+      <c r="O86" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
       <c r="R86" s="17"/>
@@ -8926,19 +9442,29 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
+      <c r="C87" s="13">
+        <v>6</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
+      <c r="H87" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
-      <c r="L87" s="14"/>
+      <c r="L87" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
-      <c r="O87" s="14"/>
+      <c r="O87" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="P87" s="15"/>
       <c r="Q87" s="15"/>
       <c r="R87" s="17"/>
@@ -8953,7 +9479,9 @@
       <c r="AA87" s="14"/>
       <c r="AB87" s="15"/>
       <c r="AC87" s="17"/>
-      <c r="AD87" s="14"/>
+      <c r="AD87" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="AE87" s="15"/>
       <c r="AF87" s="15"/>
       <c r="AG87" s="15"/>
@@ -8968,19 +9496,29 @@
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
+      <c r="C88" s="13">
+        <v>7</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
+      <c r="H88" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
-      <c r="L88" s="14"/>
+      <c r="L88" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
-      <c r="O88" s="14"/>
+      <c r="O88" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="17"/>
@@ -8995,7 +9533,9 @@
       <c r="AA88" s="14"/>
       <c r="AB88" s="15"/>
       <c r="AC88" s="17"/>
-      <c r="AD88" s="14"/>
+      <c r="AD88" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="AE88" s="15"/>
       <c r="AF88" s="15"/>
       <c r="AG88" s="15"/>
@@ -9010,19 +9550,29 @@
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
+      <c r="C89" s="13">
+        <v>8</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
+      <c r="H89" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
       <c r="K89" s="17"/>
-      <c r="L89" s="14"/>
+      <c r="L89" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>
-      <c r="O89" s="14"/>
+      <c r="O89" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
       <c r="R89" s="17"/>
@@ -9052,19 +9602,29 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
+      <c r="C90" s="13">
+        <v>9</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
+      <c r="H90" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="I90" s="16"/>
       <c r="J90" s="15"/>
       <c r="K90" s="17"/>
-      <c r="L90" s="14"/>
+      <c r="L90" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M90" s="15"/>
       <c r="N90" s="17"/>
-      <c r="O90" s="14"/>
+      <c r="O90" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
       <c r="R90" s="17"/>
@@ -9094,19 +9654,29 @@
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
+      <c r="C91" s="13">
+        <v>10</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
+      <c r="H91" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="I91" s="16"/>
       <c r="J91" s="15"/>
       <c r="K91" s="17"/>
-      <c r="L91" s="14"/>
+      <c r="L91" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M91" s="15"/>
       <c r="N91" s="17"/>
-      <c r="O91" s="14"/>
+      <c r="O91" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="17"/>
@@ -9136,19 +9706,29 @@
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
+      <c r="C92" s="13">
+        <v>11</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="13"/>
-      <c r="H92" s="14"/>
+      <c r="H92" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="I92" s="16"/>
       <c r="J92" s="15"/>
       <c r="K92" s="17"/>
-      <c r="L92" s="14"/>
+      <c r="L92" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M92" s="15"/>
       <c r="N92" s="17"/>
-      <c r="O92" s="14"/>
+      <c r="O92" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
       <c r="R92" s="17"/>
@@ -9178,19 +9758,29 @@
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
+      <c r="C93" s="13">
+        <v>12</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="14"/>
+      <c r="H93" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="I93" s="16"/>
       <c r="J93" s="15"/>
       <c r="K93" s="17"/>
-      <c r="L93" s="14"/>
+      <c r="L93" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M93" s="15"/>
       <c r="N93" s="17"/>
-      <c r="O93" s="14"/>
+      <c r="O93" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P93" s="15"/>
       <c r="Q93" s="15"/>
       <c r="R93" s="17"/>
@@ -9220,19 +9810,29 @@
     <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
+      <c r="C94" s="13">
+        <v>13</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="14"/>
+      <c r="H94" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="I94" s="16"/>
       <c r="J94" s="15"/>
       <c r="K94" s="17"/>
-      <c r="L94" s="14"/>
+      <c r="L94" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M94" s="15"/>
       <c r="N94" s="17"/>
-      <c r="O94" s="14"/>
+      <c r="O94" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P94" s="15"/>
       <c r="Q94" s="15"/>
       <c r="R94" s="17"/>
@@ -9262,19 +9862,29 @@
     <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
+      <c r="C95" s="13">
+        <v>14</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="G95" s="13"/>
-      <c r="H95" s="14"/>
+      <c r="H95" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="I95" s="16"/>
       <c r="J95" s="15"/>
       <c r="K95" s="17"/>
-      <c r="L95" s="14"/>
+      <c r="L95" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M95" s="15"/>
       <c r="N95" s="17"/>
-      <c r="O95" s="14"/>
+      <c r="O95" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="P95" s="15"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="17"/>
@@ -9304,7 +9914,9 @@
     <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>15</v>
+      </c>
       <c r="D96" s="14"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
@@ -9346,7 +9958,9 @@
     <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>16</v>
+      </c>
       <c r="D97" s="14"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -9388,7 +10002,9 @@
     <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13">
+        <v>17</v>
+      </c>
       <c r="D98" s="14"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -9430,7 +10046,9 @@
     <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>18</v>
+      </c>
       <c r="D99" s="14"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -9472,7 +10090,9 @@
     <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13">
+        <v>19</v>
+      </c>
       <c r="D100" s="14"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -9514,7 +10134,9 @@
     <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>20</v>
+      </c>
       <c r="D101" s="14"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
@@ -9556,7 +10178,9 @@
     <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>21</v>
+      </c>
       <c r="D102" s="14"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
@@ -9598,7 +10222,9 @@
     <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
+      <c r="C103" s="13">
+        <v>22</v>
+      </c>
       <c r="D103" s="14"/>
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
@@ -9640,7 +10266,9 @@
     <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
+      <c r="C104" s="13">
+        <v>23</v>
+      </c>
       <c r="D104" s="14"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -9848,46 +10476,172 @@
       <c r="AN108" s="7"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10"/>
-      <c r="O109" s="10"/>
-      <c r="P109" s="10"/>
-      <c r="Q109" s="10"/>
-      <c r="R109" s="10"/>
-      <c r="S109" s="10"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="10"/>
-      <c r="V109" s="10"/>
-      <c r="W109" s="10"/>
-      <c r="X109" s="10"/>
-      <c r="Y109" s="10"/>
-      <c r="Z109" s="10"/>
-      <c r="AA109" s="10"/>
-      <c r="AB109" s="10"/>
-      <c r="AC109" s="10"/>
-      <c r="AD109" s="10"/>
-      <c r="AE109" s="10"/>
-      <c r="AF109" s="10"/>
-      <c r="AG109" s="10"/>
-      <c r="AH109" s="10"/>
-      <c r="AI109" s="10"/>
-      <c r="AJ109" s="10"/>
-      <c r="AK109" s="10"/>
-      <c r="AL109" s="10"/>
-      <c r="AM109" s="10"/>
-      <c r="AN109" s="11"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="14"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="14"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="14"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+      <c r="AJ109" s="15"/>
+      <c r="AK109" s="15"/>
+      <c r="AL109" s="15"/>
+      <c r="AM109" s="18"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="6"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="14"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="14"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="14"/>
+      <c r="X110" s="15"/>
+      <c r="Y110" s="15"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="14"/>
+      <c r="AB110" s="15"/>
+      <c r="AC110" s="17"/>
+      <c r="AD110" s="14"/>
+      <c r="AE110" s="15"/>
+      <c r="AF110" s="15"/>
+      <c r="AG110" s="15"/>
+      <c r="AH110" s="15"/>
+      <c r="AI110" s="15"/>
+      <c r="AJ110" s="15"/>
+      <c r="AK110" s="15"/>
+      <c r="AL110" s="15"/>
+      <c r="AM110" s="18"/>
+      <c r="AN110" s="7"/>
+    </row>
+    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="14"/>
+      <c r="V111" s="17"/>
+      <c r="W111" s="14"/>
+      <c r="X111" s="15"/>
+      <c r="Y111" s="15"/>
+      <c r="Z111" s="17"/>
+      <c r="AA111" s="14"/>
+      <c r="AB111" s="15"/>
+      <c r="AC111" s="17"/>
+      <c r="AD111" s="14"/>
+      <c r="AE111" s="15"/>
+      <c r="AF111" s="15"/>
+      <c r="AG111" s="15"/>
+      <c r="AH111" s="15"/>
+      <c r="AI111" s="15"/>
+      <c r="AJ111" s="15"/>
+      <c r="AK111" s="15"/>
+      <c r="AL111" s="15"/>
+      <c r="AM111" s="18"/>
+      <c r="AN111" s="7"/>
+    </row>
+    <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="9"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="10"/>
+      <c r="S112" s="10"/>
+      <c r="T112" s="10"/>
+      <c r="U112" s="10"/>
+      <c r="V112" s="10"/>
+      <c r="W112" s="10"/>
+      <c r="X112" s="10"/>
+      <c r="Y112" s="10"/>
+      <c r="Z112" s="10"/>
+      <c r="AA112" s="10"/>
+      <c r="AB112" s="10"/>
+      <c r="AC112" s="10"/>
+      <c r="AD112" s="10"/>
+      <c r="AE112" s="10"/>
+      <c r="AF112" s="10"/>
+      <c r="AG112" s="10"/>
+      <c r="AH112" s="10"/>
+      <c r="AI112" s="10"/>
+      <c r="AJ112" s="10"/>
+      <c r="AK112" s="10"/>
+      <c r="AL112" s="10"/>
+      <c r="AM112" s="10"/>
+      <c r="AN112" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC6701A-DE51-4399-A4A0-32E388ADC145}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E9F45F-B85C-44EA-A1A9-035C55270DD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -296,13 +296,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>検索</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>update</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -425,12 +418,49 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>placeholderで入力例を記述</t>
+    <t>return</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>placeholderで入力例を記述,required</t>
     <rPh sb="12" eb="15">
       <t>ニュウリョクレイ</t>
     </rPh>
     <rPh sb="16" eb="18">
       <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>虫眼鏡</t>
+    <rPh sb="0" eb="3">
+      <t>ムシメガネ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -5054,94 +5084,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>115796</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>52294</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>141941</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="テキスト ボックス 139">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8AA8A5-9B51-4711-B1D2-D10F857D268D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3425265" y="3029325"/>
-          <a:ext cx="1453029" cy="997322"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>アコーディオン　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>jQuery</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -5312,7 +5254,15 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リストの詳細が表示される</a:t>
+            <a:t>リストの詳細が表示される（ｊ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Query</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のアコーディオン）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5801,8 +5751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU47" sqref="AU47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5911,7 +5861,7 @@
       </c>
       <c r="AG2" s="40"/>
       <c r="AH2" s="41">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="AI2" s="42"/>
       <c r="AJ2" s="42"/>
@@ -9078,19 +9028,23 @@
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
       <c r="R80" s="17"/>
-      <c r="S80" s="14"/>
+      <c r="S80" s="14">
+        <v>10</v>
+      </c>
       <c r="T80" s="17"/>
-      <c r="U80" s="14"/>
+      <c r="U80" s="14">
+        <v>10</v>
+      </c>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
         <v>38</v>
@@ -9134,19 +9088,23 @@
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
       <c r="R81" s="17"/>
-      <c r="S81" s="14"/>
+      <c r="S81" s="14">
+        <v>1</v>
+      </c>
       <c r="T81" s="17"/>
-      <c r="U81" s="14"/>
+      <c r="U81" s="14">
+        <v>1</v>
+      </c>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
         <v>38</v>
@@ -9190,19 +9148,23 @@
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
       <c r="R82" s="17"/>
-      <c r="S82" s="14"/>
+      <c r="S82" s="14">
+        <v>0</v>
+      </c>
       <c r="T82" s="17"/>
-      <c r="U82" s="14"/>
+      <c r="U82" s="14">
+        <v>20</v>
+      </c>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
         <v>38</v>
@@ -9246,19 +9208,23 @@
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="17"/>
-      <c r="S83" s="14"/>
+      <c r="S83" s="14">
+        <v>0</v>
+      </c>
       <c r="T83" s="17"/>
-      <c r="U83" s="14"/>
+      <c r="U83" s="14">
+        <v>40</v>
+      </c>
       <c r="V83" s="17"/>
       <c r="W83" s="14" t="s">
         <v>38</v>
@@ -9302,7 +9268,7 @@
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -9342,19 +9308,19 @@
         <v>4</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
@@ -9394,13 +9360,13 @@
         <v>5</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
@@ -9446,13 +9412,13 @@
         <v>6</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
       <c r="H87" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
@@ -9480,7 +9446,7 @@
       <c r="AB87" s="15"/>
       <c r="AC87" s="17"/>
       <c r="AD87" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE87" s="15"/>
       <c r="AF87" s="15"/>
@@ -9500,13 +9466,13 @@
         <v>7</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
       <c r="H88" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
@@ -9534,7 +9500,7 @@
       <c r="AB88" s="15"/>
       <c r="AC88" s="17"/>
       <c r="AD88" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE88" s="15"/>
       <c r="AF88" s="15"/>
@@ -9554,13 +9520,13 @@
         <v>8</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
       <c r="H89" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
@@ -9571,7 +9537,7 @@
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>
       <c r="O89" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
@@ -9606,13 +9572,13 @@
         <v>9</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="13"/>
       <c r="H90" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I90" s="16"/>
       <c r="J90" s="15"/>
@@ -9623,7 +9589,7 @@
       <c r="M90" s="15"/>
       <c r="N90" s="17"/>
       <c r="O90" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
@@ -9658,13 +9624,13 @@
         <v>10</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="13"/>
       <c r="H91" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I91" s="16"/>
       <c r="J91" s="15"/>
@@ -9675,7 +9641,7 @@
       <c r="M91" s="15"/>
       <c r="N91" s="17"/>
       <c r="O91" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
@@ -9710,13 +9676,13 @@
         <v>11</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="13"/>
       <c r="H92" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I92" s="16"/>
       <c r="J92" s="15"/>
@@ -9727,7 +9693,7 @@
       <c r="M92" s="15"/>
       <c r="N92" s="17"/>
       <c r="O92" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
@@ -9762,13 +9728,13 @@
         <v>12</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="13"/>
       <c r="H93" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I93" s="16"/>
       <c r="J93" s="15"/>
@@ -9795,7 +9761,9 @@
       <c r="AA93" s="14"/>
       <c r="AB93" s="15"/>
       <c r="AC93" s="17"/>
-      <c r="AD93" s="14"/>
+      <c r="AD93" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="AE93" s="15"/>
       <c r="AF93" s="15"/>
       <c r="AG93" s="15"/>
@@ -9814,13 +9782,13 @@
         <v>13</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
       <c r="G94" s="13"/>
       <c r="H94" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I94" s="16"/>
       <c r="J94" s="15"/>
@@ -9847,7 +9815,9 @@
       <c r="AA94" s="14"/>
       <c r="AB94" s="15"/>
       <c r="AC94" s="17"/>
-      <c r="AD94" s="14"/>
+      <c r="AD94" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="AE94" s="15"/>
       <c r="AF94" s="15"/>
       <c r="AG94" s="15"/>
@@ -9866,13 +9836,13 @@
         <v>14</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="G95" s="13"/>
       <c r="H95" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I95" s="16"/>
       <c r="J95" s="15"/>
@@ -9917,15 +9887,21 @@
       <c r="C96" s="13">
         <v>15</v>
       </c>
-      <c r="D96" s="14"/>
+      <c r="D96" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="14"/>
+      <c r="H96" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="I96" s="16"/>
       <c r="J96" s="15"/>
       <c r="K96" s="17"/>
-      <c r="L96" s="14"/>
+      <c r="L96" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="M96" s="15"/>
       <c r="N96" s="17"/>
       <c r="O96" s="14"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E9F45F-B85C-44EA-A1A9-035C55270DD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C670B3-6AAB-4F1E-8EC2-7A9E4C6A512F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">外部設計書!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -462,6 +473,14 @@
     <rPh sb="0" eb="3">
       <t>ムシメガネ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>textarea</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5084,16 +5103,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>26148</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>52294</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>82176</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>209177</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5108,8 +5127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2409265" y="2969560"/>
-          <a:ext cx="1453029" cy="997322"/>
+          <a:off x="7138148" y="2364442"/>
+          <a:ext cx="2977029" cy="997322"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5138,6 +5157,29 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（暫定）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画像を</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -5145,8 +5187,14 @@
             </a:rPr>
             <a:t>jQuery</a:t>
           </a:r>
-        </a:p>
-        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
               <a:solidFill>
@@ -5155,11 +5203,14 @@
             </a:rPr>
             <a:t>fisheye</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>で表示</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5749,10 +5800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN112"/>
+  <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O95" sqref="O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9836,25 +9887,23 @@
         <v>14</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="G95" s="13"/>
       <c r="H95" s="14" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I95" s="16"/>
       <c r="J95" s="15"/>
       <c r="K95" s="17"/>
       <c r="L95" s="14" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="M95" s="15"/>
       <c r="N95" s="17"/>
-      <c r="O95" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="O95" s="14"/>
       <c r="P95" s="15"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="17"/>
@@ -9888,23 +9937,25 @@
         <v>15</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
       <c r="G96" s="13"/>
       <c r="H96" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I96" s="16"/>
       <c r="J96" s="15"/>
       <c r="K96" s="17"/>
       <c r="L96" s="14" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M96" s="15"/>
       <c r="N96" s="17"/>
-      <c r="O96" s="14"/>
+      <c r="O96" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="P96" s="15"/>
       <c r="Q96" s="15"/>
       <c r="R96" s="17"/>
@@ -9937,15 +9988,21 @@
       <c r="C97" s="13">
         <v>16</v>
       </c>
-      <c r="D97" s="14"/>
+      <c r="D97" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
+      <c r="H97" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="I97" s="16"/>
       <c r="J97" s="15"/>
       <c r="K97" s="17"/>
-      <c r="L97" s="14"/>
+      <c r="L97" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="M97" s="15"/>
       <c r="N97" s="17"/>
       <c r="O97" s="14"/>
@@ -9978,9 +10035,6 @@
     <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="12"/>
-      <c r="C98" s="13">
-        <v>17</v>
-      </c>
       <c r="D98" s="14"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -10023,7 +10077,7 @@
       <c r="A99" s="6"/>
       <c r="B99" s="12"/>
       <c r="C99" s="13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="15"/>
@@ -10067,7 +10121,7 @@
       <c r="A100" s="6"/>
       <c r="B100" s="12"/>
       <c r="C100" s="13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="15"/>
@@ -10111,7 +10165,7 @@
       <c r="A101" s="6"/>
       <c r="B101" s="12"/>
       <c r="C101" s="13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="15"/>
@@ -10155,7 +10209,7 @@
       <c r="A102" s="6"/>
       <c r="B102" s="12"/>
       <c r="C102" s="13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="15"/>
@@ -10199,7 +10253,7 @@
       <c r="A103" s="6"/>
       <c r="B103" s="12"/>
       <c r="C103" s="13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="15"/>
@@ -10243,7 +10297,7 @@
       <c r="A104" s="6"/>
       <c r="B104" s="12"/>
       <c r="C104" s="13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="15"/>
@@ -10286,7 +10340,9 @@
     <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
+      <c r="C105" s="13">
+        <v>23</v>
+      </c>
       <c r="D105" s="14"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
@@ -10578,46 +10634,88 @@
       <c r="AN111" s="7"/>
     </row>
     <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="9"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="10"/>
-      <c r="O112" s="10"/>
-      <c r="P112" s="10"/>
-      <c r="Q112" s="10"/>
-      <c r="R112" s="10"/>
-      <c r="S112" s="10"/>
-      <c r="T112" s="10"/>
-      <c r="U112" s="10"/>
-      <c r="V112" s="10"/>
-      <c r="W112" s="10"/>
-      <c r="X112" s="10"/>
-      <c r="Y112" s="10"/>
-      <c r="Z112" s="10"/>
-      <c r="AA112" s="10"/>
-      <c r="AB112" s="10"/>
-      <c r="AC112" s="10"/>
-      <c r="AD112" s="10"/>
-      <c r="AE112" s="10"/>
-      <c r="AF112" s="10"/>
-      <c r="AG112" s="10"/>
-      <c r="AH112" s="10"/>
-      <c r="AI112" s="10"/>
-      <c r="AJ112" s="10"/>
-      <c r="AK112" s="10"/>
-      <c r="AL112" s="10"/>
-      <c r="AM112" s="10"/>
-      <c r="AN112" s="11"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="17"/>
+      <c r="S112" s="14"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="14"/>
+      <c r="V112" s="17"/>
+      <c r="W112" s="14"/>
+      <c r="X112" s="15"/>
+      <c r="Y112" s="15"/>
+      <c r="Z112" s="17"/>
+      <c r="AA112" s="14"/>
+      <c r="AB112" s="15"/>
+      <c r="AC112" s="17"/>
+      <c r="AD112" s="14"/>
+      <c r="AE112" s="15"/>
+      <c r="AF112" s="15"/>
+      <c r="AG112" s="15"/>
+      <c r="AH112" s="15"/>
+      <c r="AI112" s="15"/>
+      <c r="AJ112" s="15"/>
+      <c r="AK112" s="15"/>
+      <c r="AL112" s="15"/>
+      <c r="AM112" s="18"/>
+      <c r="AN112" s="7"/>
+    </row>
+    <row r="113" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="9"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+      <c r="R113" s="10"/>
+      <c r="S113" s="10"/>
+      <c r="T113" s="10"/>
+      <c r="U113" s="10"/>
+      <c r="V113" s="10"/>
+      <c r="W113" s="10"/>
+      <c r="X113" s="10"/>
+      <c r="Y113" s="10"/>
+      <c r="Z113" s="10"/>
+      <c r="AA113" s="10"/>
+      <c r="AB113" s="10"/>
+      <c r="AC113" s="10"/>
+      <c r="AD113" s="10"/>
+      <c r="AE113" s="10"/>
+      <c r="AF113" s="10"/>
+      <c r="AG113" s="10"/>
+      <c r="AH113" s="10"/>
+      <c r="AI113" s="10"/>
+      <c r="AJ113" s="10"/>
+      <c r="AK113" s="10"/>
+      <c r="AL113" s="10"/>
+      <c r="AM113" s="10"/>
+      <c r="AN113" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C670B3-6AAB-4F1E-8EC2-7A9E4C6A512F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB60336F-13DE-4EE1-90B6-6F9DD87AA427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4705,8 +4705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6369050" y="1739900"/>
-          <a:ext cx="596900" cy="412750"/>
+          <a:off x="6369050" y="1773518"/>
+          <a:ext cx="596900" cy="420220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5802,8 +5802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O95" sqref="O95"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB60336F-13DE-4EE1-90B6-6F9DD87AA427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0F5F15-3793-459C-B3A0-EDDDDAF5C90C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -220,22 +220,6 @@
   </si>
   <si>
     <t>drawer</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>list_date</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>list_genre</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>list_name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>list_address</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -476,11 +460,46 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>remarks</t>
+    <t>textarea</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>textarea</t>
+    <t>spot_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spot_genre</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spot_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spot_address</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spot_image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スポット画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>fisheye</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spot_remarks</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>REMARKS</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -863,7 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -990,6 +1009,24 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5103,121 +5140,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>26148</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>209177</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>59764</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="テキスト ボックス 140">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9261B0-77FD-45AD-A4FE-52B68C78C18B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7138148" y="2364442"/>
-          <a:ext cx="2977029" cy="997322"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>（暫定）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>画像を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>jQuery</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>fisheye</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>で表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>45357</xdr:colOff>
       <xdr:row>41</xdr:row>
@@ -5471,6 +5393,248 @@
             <a:t>リスト画面に遷移する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「１６　画像」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（暫定）画像を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>jQuery</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fisheye</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250638</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>159870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85538</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>191619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4409007-65D6-4278-B8A4-DAA58AE89946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1774638" y="2879164"/>
+          <a:ext cx="596900" cy="420220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>86286</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175186</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169208</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98BB756A-9396-4A84-AB01-1A9F88E44B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610286" y="3439459"/>
+          <a:ext cx="596900" cy="420220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>17</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5802,8 +5966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9067,24 +9231,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -9098,13 +9262,13 @@
       </c>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -9127,24 +9291,24 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -9158,13 +9322,13 @@
       </c>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -9187,24 +9351,24 @@
         <v>2</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
@@ -9218,13 +9382,13 @@
       </c>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -9247,24 +9411,24 @@
         <v>2</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
@@ -9278,13 +9442,13 @@
       </c>
       <c r="V83" s="17"/>
       <c r="W83" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
@@ -9307,24 +9471,24 @@
         <v>3</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
@@ -9359,24 +9523,24 @@
         <v>4</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
@@ -9411,24 +9575,24 @@
         <v>5</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
       <c r="O86" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
@@ -9463,24 +9627,24 @@
         <v>6</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
       <c r="H87" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
       <c r="L87" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
       <c r="O87" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P87" s="15"/>
       <c r="Q87" s="15"/>
@@ -9497,7 +9661,7 @@
       <c r="AB87" s="15"/>
       <c r="AC87" s="17"/>
       <c r="AD87" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AE87" s="15"/>
       <c r="AF87" s="15"/>
@@ -9517,24 +9681,24 @@
         <v>7</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
       <c r="H88" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
       <c r="L88" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
       <c r="O88" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
@@ -9551,7 +9715,7 @@
       <c r="AB88" s="15"/>
       <c r="AC88" s="17"/>
       <c r="AD88" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AE88" s="15"/>
       <c r="AF88" s="15"/>
@@ -9571,24 +9735,24 @@
         <v>8</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
       <c r="H89" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
       <c r="K89" s="17"/>
       <c r="L89" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>
       <c r="O89" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
@@ -9623,24 +9787,24 @@
         <v>9</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="13"/>
       <c r="H90" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I90" s="16"/>
       <c r="J90" s="15"/>
       <c r="K90" s="17"/>
       <c r="L90" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M90" s="15"/>
       <c r="N90" s="17"/>
       <c r="O90" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
@@ -9675,24 +9839,24 @@
         <v>10</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="13"/>
       <c r="H91" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I91" s="16"/>
       <c r="J91" s="15"/>
       <c r="K91" s="17"/>
       <c r="L91" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="17"/>
       <c r="O91" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
@@ -9727,24 +9891,24 @@
         <v>11</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="13"/>
       <c r="H92" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I92" s="16"/>
       <c r="J92" s="15"/>
       <c r="K92" s="17"/>
       <c r="L92" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="17"/>
       <c r="O92" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
@@ -9779,24 +9943,24 @@
         <v>12</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="13"/>
       <c r="H93" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I93" s="16"/>
       <c r="J93" s="15"/>
       <c r="K93" s="17"/>
       <c r="L93" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M93" s="15"/>
       <c r="N93" s="17"/>
       <c r="O93" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P93" s="15"/>
       <c r="Q93" s="15"/>
@@ -9813,7 +9977,7 @@
       <c r="AB93" s="15"/>
       <c r="AC93" s="17"/>
       <c r="AD93" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AE93" s="15"/>
       <c r="AF93" s="15"/>
@@ -9833,24 +9997,24 @@
         <v>13</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
       <c r="G94" s="13"/>
       <c r="H94" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I94" s="16"/>
       <c r="J94" s="15"/>
       <c r="K94" s="17"/>
       <c r="L94" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M94" s="15"/>
       <c r="N94" s="17"/>
       <c r="O94" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P94" s="15"/>
       <c r="Q94" s="15"/>
@@ -9867,7 +10031,7 @@
       <c r="AB94" s="15"/>
       <c r="AC94" s="17"/>
       <c r="AD94" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AE94" s="15"/>
       <c r="AF94" s="15"/>
@@ -9887,23 +10051,25 @@
         <v>14</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="G95" s="13"/>
       <c r="H95" s="14" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I95" s="16"/>
       <c r="J95" s="15"/>
       <c r="K95" s="17"/>
       <c r="L95" s="14" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="M95" s="15"/>
       <c r="N95" s="17"/>
-      <c r="O95" s="14"/>
+      <c r="O95" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="P95" s="15"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="17"/>
@@ -9937,25 +10103,23 @@
         <v>15</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
       <c r="G96" s="13"/>
       <c r="H96" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I96" s="16"/>
       <c r="J96" s="15"/>
       <c r="K96" s="17"/>
       <c r="L96" s="14" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M96" s="15"/>
       <c r="N96" s="17"/>
-      <c r="O96" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="O96" s="14"/>
       <c r="P96" s="15"/>
       <c r="Q96" s="15"/>
       <c r="R96" s="17"/>
@@ -9988,28 +10152,19 @@
       <c r="C97" s="13">
         <v>16</v>
       </c>
-      <c r="D97" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
+      <c r="D97" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G97" s="13"/>
-      <c r="H97" s="14" t="s">
+      <c r="H97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K97" s="13"/>
+      <c r="L97" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I97" s="16"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M97" s="15"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="14"/>
+      <c r="N97" s="13"/>
+      <c r="R97" s="13"/>
       <c r="T97" s="17"/>
       <c r="U97" s="14"/>
       <c r="V97" s="17"/>
@@ -10020,7 +10175,9 @@
       <c r="AA97" s="14"/>
       <c r="AB97" s="15"/>
       <c r="AC97" s="17"/>
-      <c r="AD97" s="14"/>
+      <c r="AD97" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="AE97" s="15"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="15"/>
@@ -10034,645 +10191,650 @@
     </row>
     <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
-      <c r="B98" s="12"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="14"/>
-      <c r="T98" s="17"/>
-      <c r="U98" s="14"/>
-      <c r="V98" s="17"/>
-      <c r="W98" s="14"/>
-      <c r="X98" s="15"/>
-      <c r="Y98" s="15"/>
-      <c r="Z98" s="17"/>
-      <c r="AA98" s="14"/>
-      <c r="AB98" s="15"/>
-      <c r="AC98" s="17"/>
-      <c r="AD98" s="14"/>
-      <c r="AE98" s="15"/>
-      <c r="AF98" s="15"/>
-      <c r="AG98" s="15"/>
-      <c r="AH98" s="15"/>
-      <c r="AI98" s="15"/>
-      <c r="AJ98" s="15"/>
-      <c r="AK98" s="15"/>
-      <c r="AL98" s="15"/>
-      <c r="AM98" s="18"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="45">
+        <v>17</v>
+      </c>
+      <c r="D98" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98" s="47"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="48"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="M98" s="47"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P98" s="47"/>
+      <c r="Q98" s="47"/>
+      <c r="R98" s="49"/>
+      <c r="S98" s="46">
+        <v>0</v>
+      </c>
+      <c r="T98" s="49"/>
+      <c r="U98" s="46">
+        <v>100</v>
+      </c>
+      <c r="V98" s="49"/>
+      <c r="W98" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="X98" s="47"/>
+      <c r="Y98" s="47"/>
+      <c r="Z98" s="49"/>
+      <c r="AA98" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB98" s="47"/>
+      <c r="AC98" s="49"/>
+      <c r="AD98" s="46"/>
+      <c r="AE98" s="47"/>
+      <c r="AF98" s="47"/>
+      <c r="AG98" s="47"/>
+      <c r="AH98" s="47"/>
+      <c r="AI98" s="47"/>
+      <c r="AJ98" s="47"/>
+      <c r="AK98" s="47"/>
+      <c r="AL98" s="47"/>
+      <c r="AM98" s="5"/>
       <c r="AN98" s="7"/>
     </row>
     <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13">
-        <v>17</v>
-      </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="14"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="14"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="14"/>
-      <c r="X99" s="15"/>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="14"/>
-      <c r="AB99" s="15"/>
-      <c r="AC99" s="17"/>
-      <c r="AD99" s="14"/>
-      <c r="AE99" s="15"/>
-      <c r="AF99" s="15"/>
-      <c r="AG99" s="15"/>
-      <c r="AH99" s="15"/>
-      <c r="AI99" s="15"/>
-      <c r="AJ99" s="15"/>
-      <c r="AK99" s="15"/>
-      <c r="AL99" s="15"/>
-      <c r="AM99" s="18"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="48"/>
+      <c r="K99" s="48"/>
+      <c r="L99" s="48"/>
+      <c r="M99" s="48"/>
+      <c r="N99" s="48"/>
+      <c r="O99" s="48"/>
+      <c r="P99" s="48"/>
+      <c r="Q99" s="48"/>
+      <c r="R99" s="48"/>
+      <c r="S99" s="48"/>
+      <c r="T99" s="47"/>
+      <c r="U99" s="47"/>
+      <c r="V99" s="47"/>
+      <c r="W99" s="47"/>
+      <c r="X99" s="47"/>
+      <c r="Y99" s="47"/>
+      <c r="Z99" s="47"/>
+      <c r="AA99" s="47"/>
+      <c r="AB99" s="47"/>
+      <c r="AC99" s="47"/>
+      <c r="AD99" s="47"/>
+      <c r="AE99" s="47"/>
+      <c r="AF99" s="47"/>
+      <c r="AG99" s="47"/>
+      <c r="AH99" s="47"/>
+      <c r="AI99" s="47"/>
+      <c r="AJ99" s="47"/>
+      <c r="AK99" s="47"/>
+      <c r="AL99" s="47"/>
+      <c r="AM99" s="4"/>
       <c r="AN99" s="7"/>
     </row>
     <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13">
-        <v>18</v>
-      </c>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="14"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="14"/>
-      <c r="V100" s="17"/>
-      <c r="W100" s="14"/>
-      <c r="X100" s="15"/>
-      <c r="Y100" s="15"/>
-      <c r="Z100" s="17"/>
-      <c r="AA100" s="14"/>
-      <c r="AB100" s="15"/>
-      <c r="AC100" s="17"/>
-      <c r="AD100" s="14"/>
-      <c r="AE100" s="15"/>
-      <c r="AF100" s="15"/>
-      <c r="AG100" s="15"/>
-      <c r="AH100" s="15"/>
-      <c r="AI100" s="15"/>
-      <c r="AJ100" s="15"/>
-      <c r="AK100" s="15"/>
-      <c r="AL100" s="15"/>
-      <c r="AM100" s="18"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="51"/>
+      <c r="M100" s="51"/>
+      <c r="N100" s="51"/>
+      <c r="O100" s="51"/>
+      <c r="P100" s="51"/>
+      <c r="Q100" s="51"/>
+      <c r="R100" s="51"/>
+      <c r="S100" s="51"/>
+      <c r="T100" s="51"/>
+      <c r="U100" s="51"/>
+      <c r="V100" s="51"/>
+      <c r="W100" s="51"/>
+      <c r="X100" s="51"/>
+      <c r="Y100" s="51"/>
+      <c r="Z100" s="51"/>
+      <c r="AA100" s="51"/>
+      <c r="AB100" s="51"/>
+      <c r="AC100" s="51"/>
+      <c r="AD100" s="51"/>
+      <c r="AE100" s="51"/>
+      <c r="AF100" s="51"/>
+      <c r="AG100" s="51"/>
+      <c r="AH100" s="51"/>
+      <c r="AI100" s="51"/>
+      <c r="AJ100" s="51"/>
+      <c r="AK100" s="51"/>
+      <c r="AL100" s="51"/>
+      <c r="AM100" s="52"/>
       <c r="AN100" s="7"/>
     </row>
     <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13">
-        <v>19</v>
-      </c>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="14"/>
-      <c r="T101" s="17"/>
-      <c r="U101" s="14"/>
-      <c r="V101" s="17"/>
-      <c r="W101" s="14"/>
-      <c r="X101" s="15"/>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="17"/>
-      <c r="AA101" s="14"/>
-      <c r="AB101" s="15"/>
-      <c r="AC101" s="17"/>
-      <c r="AD101" s="14"/>
-      <c r="AE101" s="15"/>
-      <c r="AF101" s="15"/>
-      <c r="AG101" s="15"/>
-      <c r="AH101" s="15"/>
-      <c r="AI101" s="15"/>
-      <c r="AJ101" s="15"/>
-      <c r="AK101" s="15"/>
-      <c r="AL101" s="15"/>
-      <c r="AM101" s="18"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="51"/>
+      <c r="M101" s="51"/>
+      <c r="N101" s="51"/>
+      <c r="O101" s="51"/>
+      <c r="P101" s="51"/>
+      <c r="Q101" s="51"/>
+      <c r="R101" s="51"/>
+      <c r="S101" s="51"/>
+      <c r="T101" s="51"/>
+      <c r="U101" s="51"/>
+      <c r="V101" s="51"/>
+      <c r="W101" s="51"/>
+      <c r="X101" s="51"/>
+      <c r="Y101" s="51"/>
+      <c r="Z101" s="51"/>
+      <c r="AA101" s="51"/>
+      <c r="AB101" s="51"/>
+      <c r="AC101" s="51"/>
+      <c r="AD101" s="51"/>
+      <c r="AE101" s="51"/>
+      <c r="AF101" s="51"/>
+      <c r="AG101" s="51"/>
+      <c r="AH101" s="51"/>
+      <c r="AI101" s="51"/>
+      <c r="AJ101" s="51"/>
+      <c r="AK101" s="51"/>
+      <c r="AL101" s="51"/>
+      <c r="AM101" s="52"/>
       <c r="AN101" s="7"/>
     </row>
     <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13">
-        <v>20</v>
-      </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="14"/>
-      <c r="T102" s="17"/>
-      <c r="U102" s="14"/>
-      <c r="V102" s="17"/>
-      <c r="W102" s="14"/>
-      <c r="X102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="17"/>
-      <c r="AA102" s="14"/>
-      <c r="AB102" s="15"/>
-      <c r="AC102" s="17"/>
-      <c r="AD102" s="14"/>
-      <c r="AE102" s="15"/>
-      <c r="AF102" s="15"/>
-      <c r="AG102" s="15"/>
-      <c r="AH102" s="15"/>
-      <c r="AI102" s="15"/>
-      <c r="AJ102" s="15"/>
-      <c r="AK102" s="15"/>
-      <c r="AL102" s="15"/>
-      <c r="AM102" s="18"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="50"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="51"/>
+      <c r="R102" s="51"/>
+      <c r="S102" s="51"/>
+      <c r="T102" s="51"/>
+      <c r="U102" s="51"/>
+      <c r="V102" s="51"/>
+      <c r="W102" s="51"/>
+      <c r="X102" s="51"/>
+      <c r="Y102" s="51"/>
+      <c r="Z102" s="51"/>
+      <c r="AA102" s="51"/>
+      <c r="AB102" s="51"/>
+      <c r="AC102" s="51"/>
+      <c r="AD102" s="51"/>
+      <c r="AE102" s="51"/>
+      <c r="AF102" s="51"/>
+      <c r="AG102" s="51"/>
+      <c r="AH102" s="51"/>
+      <c r="AI102" s="51"/>
+      <c r="AJ102" s="51"/>
+      <c r="AK102" s="51"/>
+      <c r="AL102" s="51"/>
+      <c r="AM102" s="52"/>
       <c r="AN102" s="7"/>
     </row>
     <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13">
-        <v>21</v>
-      </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="14"/>
-      <c r="T103" s="17"/>
-      <c r="U103" s="14"/>
-      <c r="V103" s="17"/>
-      <c r="W103" s="14"/>
-      <c r="X103" s="15"/>
-      <c r="Y103" s="15"/>
-      <c r="Z103" s="17"/>
-      <c r="AA103" s="14"/>
-      <c r="AB103" s="15"/>
-      <c r="AC103" s="17"/>
-      <c r="AD103" s="14"/>
-      <c r="AE103" s="15"/>
-      <c r="AF103" s="15"/>
-      <c r="AG103" s="15"/>
-      <c r="AH103" s="15"/>
-      <c r="AI103" s="15"/>
-      <c r="AJ103" s="15"/>
-      <c r="AK103" s="15"/>
-      <c r="AL103" s="15"/>
-      <c r="AM103" s="18"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="50"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="51"/>
+      <c r="R103" s="51"/>
+      <c r="S103" s="51"/>
+      <c r="T103" s="51"/>
+      <c r="U103" s="51"/>
+      <c r="V103" s="51"/>
+      <c r="W103" s="51"/>
+      <c r="X103" s="51"/>
+      <c r="Y103" s="51"/>
+      <c r="Z103" s="51"/>
+      <c r="AA103" s="51"/>
+      <c r="AB103" s="51"/>
+      <c r="AC103" s="51"/>
+      <c r="AD103" s="51"/>
+      <c r="AE103" s="51"/>
+      <c r="AF103" s="51"/>
+      <c r="AG103" s="51"/>
+      <c r="AH103" s="51"/>
+      <c r="AI103" s="51"/>
+      <c r="AJ103" s="51"/>
+      <c r="AK103" s="51"/>
+      <c r="AL103" s="51"/>
+      <c r="AM103" s="52"/>
       <c r="AN103" s="7"/>
     </row>
     <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13">
-        <v>22</v>
-      </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="15"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="14"/>
-      <c r="T104" s="17"/>
-      <c r="U104" s="14"/>
-      <c r="V104" s="17"/>
-      <c r="W104" s="14"/>
-      <c r="X104" s="15"/>
-      <c r="Y104" s="15"/>
-      <c r="Z104" s="17"/>
-      <c r="AA104" s="14"/>
-      <c r="AB104" s="15"/>
-      <c r="AC104" s="17"/>
-      <c r="AD104" s="14"/>
-      <c r="AE104" s="15"/>
-      <c r="AF104" s="15"/>
-      <c r="AG104" s="15"/>
-      <c r="AH104" s="15"/>
-      <c r="AI104" s="15"/>
-      <c r="AJ104" s="15"/>
-      <c r="AK104" s="15"/>
-      <c r="AL104" s="15"/>
-      <c r="AM104" s="18"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="50"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="51"/>
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="51"/>
+      <c r="R104" s="51"/>
+      <c r="S104" s="51"/>
+      <c r="T104" s="51"/>
+      <c r="U104" s="51"/>
+      <c r="V104" s="51"/>
+      <c r="W104" s="51"/>
+      <c r="X104" s="51"/>
+      <c r="Y104" s="51"/>
+      <c r="Z104" s="51"/>
+      <c r="AA104" s="51"/>
+      <c r="AB104" s="51"/>
+      <c r="AC104" s="51"/>
+      <c r="AD104" s="51"/>
+      <c r="AE104" s="51"/>
+      <c r="AF104" s="51"/>
+      <c r="AG104" s="51"/>
+      <c r="AH104" s="51"/>
+      <c r="AI104" s="51"/>
+      <c r="AJ104" s="51"/>
+      <c r="AK104" s="51"/>
+      <c r="AL104" s="51"/>
+      <c r="AM104" s="52"/>
       <c r="AN104" s="7"/>
     </row>
     <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13">
-        <v>23</v>
-      </c>
-      <c r="D105" s="14"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="14"/>
-      <c r="T105" s="17"/>
-      <c r="U105" s="14"/>
-      <c r="V105" s="17"/>
-      <c r="W105" s="14"/>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="17"/>
-      <c r="AA105" s="14"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="17"/>
-      <c r="AD105" s="14"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="15"/>
-      <c r="AI105" s="15"/>
-      <c r="AJ105" s="15"/>
-      <c r="AK105" s="15"/>
-      <c r="AL105" s="15"/>
-      <c r="AM105" s="18"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="51"/>
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="51"/>
+      <c r="R105" s="51"/>
+      <c r="S105" s="51"/>
+      <c r="T105" s="51"/>
+      <c r="U105" s="51"/>
+      <c r="V105" s="51"/>
+      <c r="W105" s="51"/>
+      <c r="X105" s="51"/>
+      <c r="Y105" s="51"/>
+      <c r="Z105" s="51"/>
+      <c r="AA105" s="51"/>
+      <c r="AB105" s="51"/>
+      <c r="AC105" s="51"/>
+      <c r="AD105" s="51"/>
+      <c r="AE105" s="51"/>
+      <c r="AF105" s="51"/>
+      <c r="AG105" s="51"/>
+      <c r="AH105" s="51"/>
+      <c r="AI105" s="51"/>
+      <c r="AJ105" s="51"/>
+      <c r="AK105" s="51"/>
+      <c r="AL105" s="51"/>
+      <c r="AM105" s="52"/>
       <c r="AN105" s="7"/>
     </row>
     <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="15"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="15"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="14"/>
-      <c r="T106" s="17"/>
-      <c r="U106" s="14"/>
-      <c r="V106" s="17"/>
-      <c r="W106" s="14"/>
-      <c r="X106" s="15"/>
-      <c r="Y106" s="15"/>
-      <c r="Z106" s="17"/>
-      <c r="AA106" s="14"/>
-      <c r="AB106" s="15"/>
-      <c r="AC106" s="17"/>
-      <c r="AD106" s="14"/>
-      <c r="AE106" s="15"/>
-      <c r="AF106" s="15"/>
-      <c r="AG106" s="15"/>
-      <c r="AH106" s="15"/>
-      <c r="AI106" s="15"/>
-      <c r="AJ106" s="15"/>
-      <c r="AK106" s="15"/>
-      <c r="AL106" s="15"/>
-      <c r="AM106" s="18"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="51"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="51"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="51"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="51"/>
+      <c r="O106" s="51"/>
+      <c r="P106" s="51"/>
+      <c r="Q106" s="51"/>
+      <c r="R106" s="51"/>
+      <c r="S106" s="51"/>
+      <c r="T106" s="51"/>
+      <c r="U106" s="51"/>
+      <c r="V106" s="51"/>
+      <c r="W106" s="51"/>
+      <c r="X106" s="51"/>
+      <c r="Y106" s="51"/>
+      <c r="Z106" s="51"/>
+      <c r="AA106" s="51"/>
+      <c r="AB106" s="51"/>
+      <c r="AC106" s="51"/>
+      <c r="AD106" s="51"/>
+      <c r="AE106" s="51"/>
+      <c r="AF106" s="51"/>
+      <c r="AG106" s="51"/>
+      <c r="AH106" s="51"/>
+      <c r="AI106" s="51"/>
+      <c r="AJ106" s="51"/>
+      <c r="AK106" s="51"/>
+      <c r="AL106" s="51"/>
+      <c r="AM106" s="52"/>
       <c r="AN106" s="7"/>
     </row>
     <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="15"/>
-      <c r="R107" s="17"/>
-      <c r="S107" s="14"/>
-      <c r="T107" s="17"/>
-      <c r="U107" s="14"/>
-      <c r="V107" s="17"/>
-      <c r="W107" s="14"/>
-      <c r="X107" s="15"/>
-      <c r="Y107" s="15"/>
-      <c r="Z107" s="17"/>
-      <c r="AA107" s="14"/>
-      <c r="AB107" s="15"/>
-      <c r="AC107" s="17"/>
-      <c r="AD107" s="14"/>
-      <c r="AE107" s="15"/>
-      <c r="AF107" s="15"/>
-      <c r="AG107" s="15"/>
-      <c r="AH107" s="15"/>
-      <c r="AI107" s="15"/>
-      <c r="AJ107" s="15"/>
-      <c r="AK107" s="15"/>
-      <c r="AL107" s="15"/>
-      <c r="AM107" s="18"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="51"/>
+      <c r="O107" s="51"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="51"/>
+      <c r="R107" s="51"/>
+      <c r="S107" s="51"/>
+      <c r="T107" s="51"/>
+      <c r="U107" s="51"/>
+      <c r="V107" s="51"/>
+      <c r="W107" s="51"/>
+      <c r="X107" s="51"/>
+      <c r="Y107" s="51"/>
+      <c r="Z107" s="51"/>
+      <c r="AA107" s="51"/>
+      <c r="AB107" s="51"/>
+      <c r="AC107" s="51"/>
+      <c r="AD107" s="51"/>
+      <c r="AE107" s="51"/>
+      <c r="AF107" s="51"/>
+      <c r="AG107" s="51"/>
+      <c r="AH107" s="51"/>
+      <c r="AI107" s="51"/>
+      <c r="AJ107" s="51"/>
+      <c r="AK107" s="51"/>
+      <c r="AL107" s="51"/>
+      <c r="AM107" s="52"/>
       <c r="AN107" s="7"/>
     </row>
     <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="17"/>
-      <c r="S108" s="14"/>
-      <c r="T108" s="17"/>
-      <c r="U108" s="14"/>
-      <c r="V108" s="17"/>
-      <c r="W108" s="14"/>
-      <c r="X108" s="15"/>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="17"/>
-      <c r="AA108" s="14"/>
-      <c r="AB108" s="15"/>
-      <c r="AC108" s="17"/>
-      <c r="AD108" s="14"/>
-      <c r="AE108" s="15"/>
-      <c r="AF108" s="15"/>
-      <c r="AG108" s="15"/>
-      <c r="AH108" s="15"/>
-      <c r="AI108" s="15"/>
-      <c r="AJ108" s="15"/>
-      <c r="AK108" s="15"/>
-      <c r="AL108" s="15"/>
-      <c r="AM108" s="18"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="51"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="50"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="51"/>
+      <c r="K108" s="51"/>
+      <c r="L108" s="51"/>
+      <c r="M108" s="51"/>
+      <c r="N108" s="51"/>
+      <c r="O108" s="51"/>
+      <c r="P108" s="51"/>
+      <c r="Q108" s="51"/>
+      <c r="R108" s="51"/>
+      <c r="S108" s="51"/>
+      <c r="T108" s="51"/>
+      <c r="U108" s="51"/>
+      <c r="V108" s="51"/>
+      <c r="W108" s="51"/>
+      <c r="X108" s="51"/>
+      <c r="Y108" s="51"/>
+      <c r="Z108" s="51"/>
+      <c r="AA108" s="51"/>
+      <c r="AB108" s="51"/>
+      <c r="AC108" s="51"/>
+      <c r="AD108" s="51"/>
+      <c r="AE108" s="51"/>
+      <c r="AF108" s="51"/>
+      <c r="AG108" s="51"/>
+      <c r="AH108" s="51"/>
+      <c r="AI108" s="51"/>
+      <c r="AJ108" s="51"/>
+      <c r="AK108" s="51"/>
+      <c r="AL108" s="51"/>
+      <c r="AM108" s="52"/>
       <c r="AN108" s="7"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="15"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="15"/>
-      <c r="R109" s="17"/>
-      <c r="S109" s="14"/>
-      <c r="T109" s="17"/>
-      <c r="U109" s="14"/>
-      <c r="V109" s="17"/>
-      <c r="W109" s="14"/>
-      <c r="X109" s="15"/>
-      <c r="Y109" s="15"/>
-      <c r="Z109" s="17"/>
-      <c r="AA109" s="14"/>
-      <c r="AB109" s="15"/>
-      <c r="AC109" s="17"/>
-      <c r="AD109" s="14"/>
-      <c r="AE109" s="15"/>
-      <c r="AF109" s="15"/>
-      <c r="AG109" s="15"/>
-      <c r="AH109" s="15"/>
-      <c r="AI109" s="15"/>
-      <c r="AJ109" s="15"/>
-      <c r="AK109" s="15"/>
-      <c r="AL109" s="15"/>
-      <c r="AM109" s="18"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="51"/>
+      <c r="K109" s="51"/>
+      <c r="L109" s="51"/>
+      <c r="M109" s="51"/>
+      <c r="N109" s="51"/>
+      <c r="O109" s="51"/>
+      <c r="P109" s="51"/>
+      <c r="Q109" s="51"/>
+      <c r="R109" s="51"/>
+      <c r="S109" s="51"/>
+      <c r="T109" s="51"/>
+      <c r="U109" s="51"/>
+      <c r="V109" s="51"/>
+      <c r="W109" s="51"/>
+      <c r="X109" s="51"/>
+      <c r="Y109" s="51"/>
+      <c r="Z109" s="51"/>
+      <c r="AA109" s="51"/>
+      <c r="AB109" s="51"/>
+      <c r="AC109" s="51"/>
+      <c r="AD109" s="51"/>
+      <c r="AE109" s="51"/>
+      <c r="AF109" s="51"/>
+      <c r="AG109" s="51"/>
+      <c r="AH109" s="51"/>
+      <c r="AI109" s="51"/>
+      <c r="AJ109" s="51"/>
+      <c r="AK109" s="51"/>
+      <c r="AL109" s="51"/>
+      <c r="AM109" s="52"/>
       <c r="AN109" s="7"/>
     </row>
     <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="14"/>
-      <c r="M110" s="15"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="14"/>
-      <c r="P110" s="15"/>
-      <c r="Q110" s="15"/>
-      <c r="R110" s="17"/>
-      <c r="S110" s="14"/>
-      <c r="T110" s="17"/>
-      <c r="U110" s="14"/>
-      <c r="V110" s="17"/>
-      <c r="W110" s="14"/>
-      <c r="X110" s="15"/>
-      <c r="Y110" s="15"/>
-      <c r="Z110" s="17"/>
-      <c r="AA110" s="14"/>
-      <c r="AB110" s="15"/>
-      <c r="AC110" s="17"/>
-      <c r="AD110" s="14"/>
-      <c r="AE110" s="15"/>
-      <c r="AF110" s="15"/>
-      <c r="AG110" s="15"/>
-      <c r="AH110" s="15"/>
-      <c r="AI110" s="15"/>
-      <c r="AJ110" s="15"/>
-      <c r="AK110" s="15"/>
-      <c r="AL110" s="15"/>
-      <c r="AM110" s="18"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="51"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="51"/>
+      <c r="O110" s="51"/>
+      <c r="P110" s="51"/>
+      <c r="Q110" s="51"/>
+      <c r="R110" s="51"/>
+      <c r="S110" s="51"/>
+      <c r="T110" s="51"/>
+      <c r="U110" s="51"/>
+      <c r="V110" s="51"/>
+      <c r="W110" s="51"/>
+      <c r="X110" s="51"/>
+      <c r="Y110" s="51"/>
+      <c r="Z110" s="51"/>
+      <c r="AA110" s="51"/>
+      <c r="AB110" s="51"/>
+      <c r="AC110" s="51"/>
+      <c r="AD110" s="51"/>
+      <c r="AE110" s="51"/>
+      <c r="AF110" s="51"/>
+      <c r="AG110" s="51"/>
+      <c r="AH110" s="51"/>
+      <c r="AI110" s="51"/>
+      <c r="AJ110" s="51"/>
+      <c r="AK110" s="51"/>
+      <c r="AL110" s="51"/>
+      <c r="AM110" s="52"/>
       <c r="AN110" s="7"/>
     </row>
     <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="15"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="15"/>
-      <c r="Q111" s="15"/>
-      <c r="R111" s="17"/>
-      <c r="S111" s="14"/>
-      <c r="T111" s="17"/>
-      <c r="U111" s="14"/>
-      <c r="V111" s="17"/>
-      <c r="W111" s="14"/>
-      <c r="X111" s="15"/>
-      <c r="Y111" s="15"/>
-      <c r="Z111" s="17"/>
-      <c r="AA111" s="14"/>
-      <c r="AB111" s="15"/>
-      <c r="AC111" s="17"/>
-      <c r="AD111" s="14"/>
-      <c r="AE111" s="15"/>
-      <c r="AF111" s="15"/>
-      <c r="AG111" s="15"/>
-      <c r="AH111" s="15"/>
-      <c r="AI111" s="15"/>
-      <c r="AJ111" s="15"/>
-      <c r="AK111" s="15"/>
-      <c r="AL111" s="15"/>
-      <c r="AM111" s="18"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="51"/>
+      <c r="K111" s="51"/>
+      <c r="L111" s="51"/>
+      <c r="M111" s="51"/>
+      <c r="N111" s="51"/>
+      <c r="O111" s="51"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="51"/>
+      <c r="R111" s="51"/>
+      <c r="S111" s="51"/>
+      <c r="T111" s="51"/>
+      <c r="U111" s="51"/>
+      <c r="V111" s="51"/>
+      <c r="W111" s="51"/>
+      <c r="X111" s="51"/>
+      <c r="Y111" s="51"/>
+      <c r="Z111" s="51"/>
+      <c r="AA111" s="51"/>
+      <c r="AB111" s="51"/>
+      <c r="AC111" s="51"/>
+      <c r="AD111" s="51"/>
+      <c r="AE111" s="51"/>
+      <c r="AF111" s="51"/>
+      <c r="AG111" s="51"/>
+      <c r="AH111" s="51"/>
+      <c r="AI111" s="51"/>
+      <c r="AJ111" s="51"/>
+      <c r="AK111" s="51"/>
+      <c r="AL111" s="51"/>
+      <c r="AM111" s="52"/>
       <c r="AN111" s="7"/>
     </row>
     <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="15"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="15"/>
-      <c r="Q112" s="15"/>
-      <c r="R112" s="17"/>
-      <c r="S112" s="14"/>
-      <c r="T112" s="17"/>
-      <c r="U112" s="14"/>
-      <c r="V112" s="17"/>
-      <c r="W112" s="14"/>
-      <c r="X112" s="15"/>
-      <c r="Y112" s="15"/>
-      <c r="Z112" s="17"/>
-      <c r="AA112" s="14"/>
-      <c r="AB112" s="15"/>
-      <c r="AC112" s="17"/>
-      <c r="AD112" s="14"/>
-      <c r="AE112" s="15"/>
-      <c r="AF112" s="15"/>
-      <c r="AG112" s="15"/>
-      <c r="AH112" s="15"/>
-      <c r="AI112" s="15"/>
-      <c r="AJ112" s="15"/>
-      <c r="AK112" s="15"/>
-      <c r="AL112" s="15"/>
-      <c r="AM112" s="18"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="50"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="51"/>
+      <c r="O112" s="51"/>
+      <c r="P112" s="51"/>
+      <c r="Q112" s="51"/>
+      <c r="R112" s="51"/>
+      <c r="S112" s="51"/>
+      <c r="T112" s="51"/>
+      <c r="U112" s="51"/>
+      <c r="V112" s="51"/>
+      <c r="W112" s="51"/>
+      <c r="X112" s="51"/>
+      <c r="Y112" s="51"/>
+      <c r="Z112" s="51"/>
+      <c r="AA112" s="51"/>
+      <c r="AB112" s="51"/>
+      <c r="AC112" s="51"/>
+      <c r="AD112" s="51"/>
+      <c r="AE112" s="51"/>
+      <c r="AF112" s="51"/>
+      <c r="AG112" s="51"/>
+      <c r="AH112" s="51"/>
+      <c r="AI112" s="51"/>
+      <c r="AJ112" s="51"/>
+      <c r="AK112" s="51"/>
+      <c r="AL112" s="51"/>
+      <c r="AM112" s="52"/>
       <c r="AN112" s="7"/>
     </row>
     <row r="113" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0F5F15-3793-459C-B3A0-EDDDDAF5C90C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C70FFA-0399-422E-A547-D50C6DA97B54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -558,6 +558,20 @@
     <font>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -882,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -935,6 +949,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,15 +991,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -995,9 +1011,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,26 +1020,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1286,8 +1316,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1392988" y="1615877"/>
-          <a:ext cx="237785" cy="176414"/>
+          <a:off x="1392988" y="1585995"/>
+          <a:ext cx="237785" cy="172678"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
         </a:xfrm>
@@ -1441,8 +1471,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1384303" y="2696509"/>
-          <a:ext cx="1955800" cy="1659217"/>
+          <a:off x="1384303" y="2647950"/>
+          <a:ext cx="1955800" cy="1625600"/>
           <a:chOff x="495300" y="2647950"/>
           <a:chExt cx="1955800" cy="1625600"/>
         </a:xfrm>
@@ -1692,8 +1722,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2963958" y="3935506"/>
-          <a:ext cx="311150" cy="314885"/>
+          <a:off x="2963958" y="3860800"/>
+          <a:ext cx="311150" cy="311150"/>
           <a:chOff x="2222500" y="4400550"/>
           <a:chExt cx="406400" cy="406400"/>
         </a:xfrm>
@@ -2155,8 +2185,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5525250" y="4710865"/>
-          <a:ext cx="203200" cy="213102"/>
+          <a:off x="5525250" y="4621218"/>
+          <a:ext cx="203200" cy="209367"/>
           <a:chOff x="2830927" y="3113703"/>
           <a:chExt cx="331086" cy="341135"/>
         </a:xfrm>
@@ -2626,8 +2656,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4951976" y="1594586"/>
-          <a:ext cx="237785" cy="176414"/>
+          <a:off x="4951976" y="1564704"/>
+          <a:ext cx="237785" cy="172678"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
         </a:xfrm>
@@ -2781,8 +2811,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5147608" y="2039470"/>
-          <a:ext cx="1576294" cy="1744058"/>
+          <a:off x="5147608" y="2002117"/>
+          <a:ext cx="1576294" cy="1710440"/>
           <a:chOff x="5065058" y="2002117"/>
           <a:chExt cx="1576294" cy="1710440"/>
         </a:xfrm>
@@ -3636,8 +3666,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5516492" y="3967256"/>
-          <a:ext cx="849814" cy="232335"/>
+          <a:off x="5516492" y="3892550"/>
+          <a:ext cx="849814" cy="228600"/>
           <a:chOff x="1860550" y="3295650"/>
           <a:chExt cx="787400" cy="349250"/>
         </a:xfrm>
@@ -3774,7 +3804,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6788149" y="1961402"/>
+          <a:off x="6788149" y="1924049"/>
           <a:ext cx="139701" cy="139701"/>
           <a:chOff x="3702049" y="2146299"/>
           <a:chExt cx="241301" cy="241301"/>
@@ -4815,8 +4845,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1420742" y="4118355"/>
-          <a:ext cx="357258" cy="205621"/>
+          <a:off x="1420742" y="4039914"/>
+          <a:ext cx="357258" cy="201886"/>
           <a:chOff x="1860550" y="3295650"/>
           <a:chExt cx="787400" cy="349250"/>
         </a:xfrm>
@@ -4953,8 +4983,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1819259" y="4118355"/>
-          <a:ext cx="357258" cy="205621"/>
+          <a:off x="1819259" y="4039914"/>
+          <a:ext cx="357258" cy="201886"/>
           <a:chOff x="1860550" y="3295650"/>
           <a:chExt cx="787400" cy="349250"/>
         </a:xfrm>
@@ -5140,16 +5170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>45357</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
+      <xdr:colOff>108857</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>172356</xdr:rowOff>
+      <xdr:rowOff>81641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5164,7 +5194,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="553357" y="7873999"/>
+          <a:off x="444500" y="7783284"/>
           <a:ext cx="9062357" cy="5442857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5194,223 +5224,223 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「１　ドロワーメニュー」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>ドロワーメニューが表示される</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「２　リスト詳細」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>リストの詳細が表示される（ｊ</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>Query</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>のアコーディオン）</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「３　リスト目的地」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>マップ画面に遷移し、ボタンを押したリストのスポットを目的地に設定する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「４　絞り込み」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>絞り込み画面に遷移する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「５　更新」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>そのリストに記載されているテキストに更新する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「６　削除」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>削除確認モーダルを表示</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「８９１０１１　ジャンル」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>ジャンルをラジオボタンで選択できる</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「１４　検索」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>記述した検索条件を元にデータベースでデータを選択し、リスト画面に遷移し、その結果を表示させる</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「１５　</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>×</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>ボタン」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>リスト画面に遷移する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「１６　画像」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -5422,7 +5452,7 @@
             <a:t>（暫定）画像を</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -5434,7 +5464,7 @@
             <a:t>jQuery</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -5446,7 +5476,7 @@
             <a:t>の</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -5458,7 +5488,7 @@
             <a:t>fisheye</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -5469,7 +5499,7 @@
             </a:rPr>
             <a:t>で表示</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -5480,7 +5510,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -5488,7 +5518,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5966,8 +5996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R75" sqref="R75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5976,158 +6006,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="29" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29" t="s">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="44" t="s">
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="36" t="s">
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="37"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="39"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="38" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="39">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="41">
         <v>45083</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="40" t="s">
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="41">
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="42">
         <v>45084</v>
       </c>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="30" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="35"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -6176,7 +6206,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -7600,7 +7630,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4"/>
@@ -9024,7 +9054,7 @@
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="52" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="4"/>
@@ -9110,63 +9140,63 @@
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14" t="s">
+      <c r="C78" s="54"/>
+      <c r="D78" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14" t="s">
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="16"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="14" t="s">
+      <c r="I78" s="57"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="14" t="s">
+      <c r="M78" s="56"/>
+      <c r="N78" s="58"/>
+      <c r="O78" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="14" t="s">
+      <c r="P78" s="56"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="58"/>
+      <c r="S78" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="T78" s="17"/>
-      <c r="U78" s="14" t="s">
+      <c r="T78" s="58"/>
+      <c r="U78" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="V78" s="17"/>
-      <c r="W78" s="14" t="s">
+      <c r="V78" s="58"/>
+      <c r="W78" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="17"/>
-      <c r="AA78" s="14" t="s">
+      <c r="X78" s="56"/>
+      <c r="Y78" s="56"/>
+      <c r="Z78" s="58"/>
+      <c r="AA78" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="17"/>
-      <c r="AD78" s="14" t="s">
+      <c r="AB78" s="56"/>
+      <c r="AC78" s="58"/>
+      <c r="AD78" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="15"/>
-      <c r="AG78" s="15"/>
-      <c r="AH78" s="15"/>
-      <c r="AI78" s="15"/>
-      <c r="AJ78" s="15"/>
-      <c r="AK78" s="15"/>
-      <c r="AL78" s="15"/>
+      <c r="AE78" s="56"/>
+      <c r="AF78" s="56"/>
+      <c r="AG78" s="56"/>
+      <c r="AH78" s="56"/>
+      <c r="AI78" s="56"/>
+      <c r="AJ78" s="56"/>
+      <c r="AK78" s="56"/>
+      <c r="AL78" s="56"/>
       <c r="AM78" s="18"/>
       <c r="AN78" s="7"/>
     </row>
@@ -10192,649 +10222,610 @@
     <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="45">
+      <c r="C98" s="20">
         <v>17</v>
       </c>
-      <c r="D98" s="46" t="s">
+      <c r="D98" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E98" s="47"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="46" t="s">
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I98" s="48"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="49"/>
-      <c r="L98" s="46" t="s">
+      <c r="I98" s="23"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="M98" s="47"/>
-      <c r="N98" s="49"/>
-      <c r="O98" s="46" t="s">
+      <c r="M98" s="22"/>
+      <c r="N98" s="24"/>
+      <c r="O98" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="P98" s="47"/>
-      <c r="Q98" s="47"/>
-      <c r="R98" s="49"/>
-      <c r="S98" s="46">
+      <c r="P98" s="22"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="24"/>
+      <c r="S98" s="21">
         <v>0</v>
       </c>
-      <c r="T98" s="49"/>
-      <c r="U98" s="46">
+      <c r="T98" s="24"/>
+      <c r="U98" s="21">
         <v>100</v>
       </c>
-      <c r="V98" s="49"/>
-      <c r="W98" s="46" t="s">
+      <c r="V98" s="24"/>
+      <c r="W98" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="X98" s="47"/>
-      <c r="Y98" s="47"/>
-      <c r="Z98" s="49"/>
-      <c r="AA98" s="46" t="s">
+      <c r="X98" s="22"/>
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="24"/>
+      <c r="AA98" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="AB98" s="47"/>
-      <c r="AC98" s="49"/>
-      <c r="AD98" s="46"/>
-      <c r="AE98" s="47"/>
-      <c r="AF98" s="47"/>
-      <c r="AG98" s="47"/>
-      <c r="AH98" s="47"/>
-      <c r="AI98" s="47"/>
-      <c r="AJ98" s="47"/>
-      <c r="AK98" s="47"/>
-      <c r="AL98" s="47"/>
+      <c r="AB98" s="22"/>
+      <c r="AC98" s="24"/>
+      <c r="AD98" s="21"/>
+      <c r="AE98" s="22"/>
+      <c r="AF98" s="22"/>
+      <c r="AG98" s="22"/>
+      <c r="AH98" s="22"/>
+      <c r="AI98" s="22"/>
+      <c r="AJ98" s="22"/>
+      <c r="AK98" s="22"/>
+      <c r="AL98" s="22"/>
       <c r="AM98" s="5"/>
       <c r="AN98" s="7"/>
     </row>
     <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
-      <c r="B99" s="48"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="48"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48"/>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48"/>
-      <c r="L99" s="48"/>
-      <c r="M99" s="48"/>
-      <c r="N99" s="48"/>
-      <c r="O99" s="48"/>
-      <c r="P99" s="48"/>
-      <c r="Q99" s="48"/>
-      <c r="R99" s="48"/>
-      <c r="S99" s="48"/>
-      <c r="T99" s="47"/>
-      <c r="U99" s="47"/>
-      <c r="V99" s="47"/>
-      <c r="W99" s="47"/>
-      <c r="X99" s="47"/>
-      <c r="Y99" s="47"/>
-      <c r="Z99" s="47"/>
-      <c r="AA99" s="47"/>
-      <c r="AB99" s="47"/>
-      <c r="AC99" s="47"/>
-      <c r="AD99" s="47"/>
-      <c r="AE99" s="47"/>
-      <c r="AF99" s="47"/>
-      <c r="AG99" s="47"/>
-      <c r="AH99" s="47"/>
-      <c r="AI99" s="47"/>
-      <c r="AJ99" s="47"/>
-      <c r="AK99" s="47"/>
-      <c r="AL99" s="47"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="23"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="23"/>
+      <c r="S99" s="23"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
+      <c r="V99" s="22"/>
+      <c r="W99" s="22"/>
+      <c r="X99" s="22"/>
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="22"/>
+      <c r="AA99" s="22"/>
+      <c r="AB99" s="22"/>
+      <c r="AC99" s="22"/>
+      <c r="AD99" s="22"/>
+      <c r="AE99" s="22"/>
+      <c r="AF99" s="22"/>
+      <c r="AG99" s="22"/>
+      <c r="AH99" s="22"/>
+      <c r="AI99" s="22"/>
+      <c r="AJ99" s="22"/>
+      <c r="AK99" s="22"/>
+      <c r="AL99" s="22"/>
       <c r="AM99" s="4"/>
       <c r="AN99" s="7"/>
     </row>
     <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="50"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="51"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="51"/>
-      <c r="I100" s="50"/>
-      <c r="J100" s="51"/>
-      <c r="K100" s="51"/>
-      <c r="L100" s="51"/>
-      <c r="M100" s="51"/>
-      <c r="N100" s="51"/>
-      <c r="O100" s="51"/>
-      <c r="P100" s="51"/>
-      <c r="Q100" s="51"/>
-      <c r="R100" s="51"/>
-      <c r="S100" s="51"/>
-      <c r="T100" s="51"/>
-      <c r="U100" s="51"/>
-      <c r="V100" s="51"/>
-      <c r="W100" s="51"/>
-      <c r="X100" s="51"/>
-      <c r="Y100" s="51"/>
-      <c r="Z100" s="51"/>
-      <c r="AA100" s="51"/>
-      <c r="AB100" s="51"/>
-      <c r="AC100" s="51"/>
-      <c r="AD100" s="51"/>
-      <c r="AE100" s="51"/>
-      <c r="AF100" s="51"/>
-      <c r="AG100" s="51"/>
-      <c r="AH100" s="51"/>
-      <c r="AI100" s="51"/>
-      <c r="AJ100" s="51"/>
-      <c r="AK100" s="51"/>
-      <c r="AL100" s="51"/>
-      <c r="AM100" s="52"/>
+      <c r="B100" s="8"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
+      <c r="AE100" s="2"/>
+      <c r="AF100" s="2"/>
+      <c r="AG100" s="2"/>
+      <c r="AH100" s="2"/>
+      <c r="AI100" s="2"/>
+      <c r="AJ100" s="2"/>
+      <c r="AK100" s="2"/>
+      <c r="AL100" s="2"/>
+      <c r="AM100" s="8"/>
       <c r="AN100" s="7"/>
     </row>
     <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
-      <c r="B101" s="52"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="51"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="51"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="51"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="51"/>
-      <c r="K101" s="51"/>
-      <c r="L101" s="51"/>
-      <c r="M101" s="51"/>
-      <c r="N101" s="51"/>
-      <c r="O101" s="51"/>
-      <c r="P101" s="51"/>
-      <c r="Q101" s="51"/>
-      <c r="R101" s="51"/>
-      <c r="S101" s="51"/>
-      <c r="T101" s="51"/>
-      <c r="U101" s="51"/>
-      <c r="V101" s="51"/>
-      <c r="W101" s="51"/>
-      <c r="X101" s="51"/>
-      <c r="Y101" s="51"/>
-      <c r="Z101" s="51"/>
-      <c r="AA101" s="51"/>
-      <c r="AB101" s="51"/>
-      <c r="AC101" s="51"/>
-      <c r="AD101" s="51"/>
-      <c r="AE101" s="51"/>
-      <c r="AF101" s="51"/>
-      <c r="AG101" s="51"/>
-      <c r="AH101" s="51"/>
-      <c r="AI101" s="51"/>
-      <c r="AJ101" s="51"/>
-      <c r="AK101" s="51"/>
-      <c r="AL101" s="51"/>
-      <c r="AM101" s="52"/>
+      <c r="B101" s="8"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
+      <c r="AD101" s="2"/>
+      <c r="AE101" s="2"/>
+      <c r="AF101" s="2"/>
+      <c r="AG101" s="2"/>
+      <c r="AH101" s="2"/>
+      <c r="AI101" s="2"/>
+      <c r="AJ101" s="2"/>
+      <c r="AK101" s="2"/>
+      <c r="AL101" s="2"/>
+      <c r="AM101" s="8"/>
       <c r="AN101" s="7"/>
     </row>
     <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
-      <c r="B102" s="52"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="50"/>
-      <c r="J102" s="51"/>
-      <c r="K102" s="51"/>
-      <c r="L102" s="51"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="51"/>
-      <c r="O102" s="51"/>
-      <c r="P102" s="51"/>
-      <c r="Q102" s="51"/>
-      <c r="R102" s="51"/>
-      <c r="S102" s="51"/>
-      <c r="T102" s="51"/>
-      <c r="U102" s="51"/>
-      <c r="V102" s="51"/>
-      <c r="W102" s="51"/>
-      <c r="X102" s="51"/>
-      <c r="Y102" s="51"/>
-      <c r="Z102" s="51"/>
-      <c r="AA102" s="51"/>
-      <c r="AB102" s="51"/>
-      <c r="AC102" s="51"/>
-      <c r="AD102" s="51"/>
-      <c r="AE102" s="51"/>
-      <c r="AF102" s="51"/>
-      <c r="AG102" s="51"/>
-      <c r="AH102" s="51"/>
-      <c r="AI102" s="51"/>
-      <c r="AJ102" s="51"/>
-      <c r="AK102" s="51"/>
-      <c r="AL102" s="51"/>
-      <c r="AM102" s="52"/>
+      <c r="B102" s="8"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
+      <c r="AF102" s="2"/>
+      <c r="AG102" s="2"/>
+      <c r="AH102" s="2"/>
+      <c r="AI102" s="2"/>
+      <c r="AJ102" s="2"/>
+      <c r="AK102" s="2"/>
+      <c r="AL102" s="2"/>
+      <c r="AM102" s="8"/>
       <c r="AN102" s="7"/>
     </row>
     <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="51"/>
-      <c r="F103" s="51"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="51"/>
-      <c r="I103" s="50"/>
-      <c r="J103" s="51"/>
-      <c r="K103" s="51"/>
-      <c r="L103" s="51"/>
-      <c r="M103" s="51"/>
-      <c r="N103" s="51"/>
-      <c r="O103" s="51"/>
-      <c r="P103" s="51"/>
-      <c r="Q103" s="51"/>
-      <c r="R103" s="51"/>
-      <c r="S103" s="51"/>
-      <c r="T103" s="51"/>
-      <c r="U103" s="51"/>
-      <c r="V103" s="51"/>
-      <c r="W103" s="51"/>
-      <c r="X103" s="51"/>
-      <c r="Y103" s="51"/>
-      <c r="Z103" s="51"/>
-      <c r="AA103" s="51"/>
-      <c r="AB103" s="51"/>
-      <c r="AC103" s="51"/>
-      <c r="AD103" s="51"/>
-      <c r="AE103" s="51"/>
-      <c r="AF103" s="51"/>
-      <c r="AG103" s="51"/>
-      <c r="AH103" s="51"/>
-      <c r="AI103" s="51"/>
-      <c r="AJ103" s="51"/>
-      <c r="AK103" s="51"/>
-      <c r="AL103" s="51"/>
-      <c r="AM103" s="52"/>
+      <c r="B103" s="8"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
+      <c r="AD103" s="2"/>
+      <c r="AE103" s="2"/>
+      <c r="AF103" s="2"/>
+      <c r="AG103" s="2"/>
+      <c r="AH103" s="2"/>
+      <c r="AI103" s="2"/>
+      <c r="AJ103" s="2"/>
+      <c r="AK103" s="2"/>
+      <c r="AL103" s="2"/>
+      <c r="AM103" s="8"/>
       <c r="AN103" s="7"/>
     </row>
     <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="51"/>
-      <c r="E104" s="51"/>
-      <c r="F104" s="51"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="51"/>
-      <c r="I104" s="50"/>
-      <c r="J104" s="51"/>
-      <c r="K104" s="51"/>
-      <c r="L104" s="51"/>
-      <c r="M104" s="51"/>
-      <c r="N104" s="51"/>
-      <c r="O104" s="51"/>
-      <c r="P104" s="51"/>
-      <c r="Q104" s="51"/>
-      <c r="R104" s="51"/>
-      <c r="S104" s="51"/>
-      <c r="T104" s="51"/>
-      <c r="U104" s="51"/>
-      <c r="V104" s="51"/>
-      <c r="W104" s="51"/>
-      <c r="X104" s="51"/>
-      <c r="Y104" s="51"/>
-      <c r="Z104" s="51"/>
-      <c r="AA104" s="51"/>
-      <c r="AB104" s="51"/>
-      <c r="AC104" s="51"/>
-      <c r="AD104" s="51"/>
-      <c r="AE104" s="51"/>
-      <c r="AF104" s="51"/>
-      <c r="AG104" s="51"/>
-      <c r="AH104" s="51"/>
-      <c r="AI104" s="51"/>
-      <c r="AJ104" s="51"/>
-      <c r="AK104" s="51"/>
-      <c r="AL104" s="51"/>
-      <c r="AM104" s="52"/>
+      <c r="B104" s="8"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="2"/>
+      <c r="AC104" s="2"/>
+      <c r="AD104" s="2"/>
+      <c r="AE104" s="2"/>
+      <c r="AF104" s="2"/>
+      <c r="AG104" s="2"/>
+      <c r="AH104" s="2"/>
+      <c r="AI104" s="2"/>
+      <c r="AJ104" s="2"/>
+      <c r="AK104" s="2"/>
+      <c r="AL104" s="2"/>
+      <c r="AM104" s="8"/>
       <c r="AN104" s="7"/>
     </row>
     <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
-      <c r="B105" s="52"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="50"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="50"/>
-      <c r="J105" s="51"/>
-      <c r="K105" s="51"/>
-      <c r="L105" s="51"/>
-      <c r="M105" s="51"/>
-      <c r="N105" s="51"/>
-      <c r="O105" s="51"/>
-      <c r="P105" s="51"/>
-      <c r="Q105" s="51"/>
-      <c r="R105" s="51"/>
-      <c r="S105" s="51"/>
-      <c r="T105" s="51"/>
-      <c r="U105" s="51"/>
-      <c r="V105" s="51"/>
-      <c r="W105" s="51"/>
-      <c r="X105" s="51"/>
-      <c r="Y105" s="51"/>
-      <c r="Z105" s="51"/>
-      <c r="AA105" s="51"/>
-      <c r="AB105" s="51"/>
-      <c r="AC105" s="51"/>
-      <c r="AD105" s="51"/>
-      <c r="AE105" s="51"/>
-      <c r="AF105" s="51"/>
-      <c r="AG105" s="51"/>
-      <c r="AH105" s="51"/>
-      <c r="AI105" s="51"/>
-      <c r="AJ105" s="51"/>
-      <c r="AK105" s="51"/>
-      <c r="AL105" s="51"/>
-      <c r="AM105" s="52"/>
+      <c r="B105" s="8"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+      <c r="AB105" s="2"/>
+      <c r="AC105" s="2"/>
+      <c r="AD105" s="2"/>
+      <c r="AE105" s="2"/>
+      <c r="AF105" s="2"/>
+      <c r="AG105" s="2"/>
+      <c r="AH105" s="2"/>
+      <c r="AI105" s="2"/>
+      <c r="AJ105" s="2"/>
+      <c r="AK105" s="2"/>
+      <c r="AL105" s="2"/>
+      <c r="AM105" s="8"/>
       <c r="AN105" s="7"/>
     </row>
     <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
-      <c r="G106" s="50"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="50"/>
-      <c r="J106" s="51"/>
-      <c r="K106" s="51"/>
-      <c r="L106" s="51"/>
-      <c r="M106" s="51"/>
-      <c r="N106" s="51"/>
-      <c r="O106" s="51"/>
-      <c r="P106" s="51"/>
-      <c r="Q106" s="51"/>
-      <c r="R106" s="51"/>
-      <c r="S106" s="51"/>
-      <c r="T106" s="51"/>
-      <c r="U106" s="51"/>
-      <c r="V106" s="51"/>
-      <c r="W106" s="51"/>
-      <c r="X106" s="51"/>
-      <c r="Y106" s="51"/>
-      <c r="Z106" s="51"/>
-      <c r="AA106" s="51"/>
-      <c r="AB106" s="51"/>
-      <c r="AC106" s="51"/>
-      <c r="AD106" s="51"/>
-      <c r="AE106" s="51"/>
-      <c r="AF106" s="51"/>
-      <c r="AG106" s="51"/>
-      <c r="AH106" s="51"/>
-      <c r="AI106" s="51"/>
-      <c r="AJ106" s="51"/>
-      <c r="AK106" s="51"/>
-      <c r="AL106" s="51"/>
-      <c r="AM106" s="52"/>
+      <c r="B106" s="8"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
+      <c r="AF106" s="2"/>
+      <c r="AG106" s="2"/>
+      <c r="AH106" s="2"/>
+      <c r="AI106" s="2"/>
+      <c r="AJ106" s="2"/>
+      <c r="AK106" s="2"/>
+      <c r="AL106" s="2"/>
+      <c r="AM106" s="8"/>
       <c r="AN106" s="7"/>
     </row>
     <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
-      <c r="B107" s="52"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="50"/>
-      <c r="J107" s="51"/>
-      <c r="K107" s="51"/>
-      <c r="L107" s="51"/>
-      <c r="M107" s="51"/>
-      <c r="N107" s="51"/>
-      <c r="O107" s="51"/>
-      <c r="P107" s="51"/>
-      <c r="Q107" s="51"/>
-      <c r="R107" s="51"/>
-      <c r="S107" s="51"/>
-      <c r="T107" s="51"/>
-      <c r="U107" s="51"/>
-      <c r="V107" s="51"/>
-      <c r="W107" s="51"/>
-      <c r="X107" s="51"/>
-      <c r="Y107" s="51"/>
-      <c r="Z107" s="51"/>
-      <c r="AA107" s="51"/>
-      <c r="AB107" s="51"/>
-      <c r="AC107" s="51"/>
-      <c r="AD107" s="51"/>
-      <c r="AE107" s="51"/>
-      <c r="AF107" s="51"/>
-      <c r="AG107" s="51"/>
-      <c r="AH107" s="51"/>
-      <c r="AI107" s="51"/>
-      <c r="AJ107" s="51"/>
-      <c r="AK107" s="51"/>
-      <c r="AL107" s="51"/>
-      <c r="AM107" s="52"/>
+      <c r="B107" s="8"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+      <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
+      <c r="AF107" s="2"/>
+      <c r="AG107" s="2"/>
+      <c r="AH107" s="2"/>
+      <c r="AI107" s="2"/>
+      <c r="AJ107" s="2"/>
+      <c r="AK107" s="2"/>
+      <c r="AL107" s="2"/>
+      <c r="AM107" s="8"/>
       <c r="AN107" s="7"/>
     </row>
     <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
-      <c r="B108" s="52"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="51"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="51"/>
-      <c r="G108" s="50"/>
-      <c r="H108" s="51"/>
-      <c r="I108" s="50"/>
-      <c r="J108" s="51"/>
-      <c r="K108" s="51"/>
-      <c r="L108" s="51"/>
-      <c r="M108" s="51"/>
-      <c r="N108" s="51"/>
-      <c r="O108" s="51"/>
-      <c r="P108" s="51"/>
-      <c r="Q108" s="51"/>
-      <c r="R108" s="51"/>
-      <c r="S108" s="51"/>
-      <c r="T108" s="51"/>
-      <c r="U108" s="51"/>
-      <c r="V108" s="51"/>
-      <c r="W108" s="51"/>
-      <c r="X108" s="51"/>
-      <c r="Y108" s="51"/>
-      <c r="Z108" s="51"/>
-      <c r="AA108" s="51"/>
-      <c r="AB108" s="51"/>
-      <c r="AC108" s="51"/>
-      <c r="AD108" s="51"/>
-      <c r="AE108" s="51"/>
-      <c r="AF108" s="51"/>
-      <c r="AG108" s="51"/>
-      <c r="AH108" s="51"/>
-      <c r="AI108" s="51"/>
-      <c r="AJ108" s="51"/>
-      <c r="AK108" s="51"/>
-      <c r="AL108" s="51"/>
-      <c r="AM108" s="52"/>
+      <c r="B108" s="8"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
+      <c r="AF108" s="2"/>
+      <c r="AG108" s="2"/>
+      <c r="AH108" s="2"/>
+      <c r="AI108" s="2"/>
+      <c r="AJ108" s="2"/>
+      <c r="AK108" s="2"/>
+      <c r="AL108" s="2"/>
+      <c r="AM108" s="8"/>
       <c r="AN108" s="7"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
-      <c r="B109" s="52"/>
-      <c r="C109" s="50"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="51"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="51"/>
-      <c r="I109" s="50"/>
-      <c r="J109" s="51"/>
-      <c r="K109" s="51"/>
-      <c r="L109" s="51"/>
-      <c r="M109" s="51"/>
-      <c r="N109" s="51"/>
-      <c r="O109" s="51"/>
-      <c r="P109" s="51"/>
-      <c r="Q109" s="51"/>
-      <c r="R109" s="51"/>
-      <c r="S109" s="51"/>
-      <c r="T109" s="51"/>
-      <c r="U109" s="51"/>
-      <c r="V109" s="51"/>
-      <c r="W109" s="51"/>
-      <c r="X109" s="51"/>
-      <c r="Y109" s="51"/>
-      <c r="Z109" s="51"/>
-      <c r="AA109" s="51"/>
-      <c r="AB109" s="51"/>
-      <c r="AC109" s="51"/>
-      <c r="AD109" s="51"/>
-      <c r="AE109" s="51"/>
-      <c r="AF109" s="51"/>
-      <c r="AG109" s="51"/>
-      <c r="AH109" s="51"/>
-      <c r="AI109" s="51"/>
-      <c r="AJ109" s="51"/>
-      <c r="AK109" s="51"/>
-      <c r="AL109" s="51"/>
-      <c r="AM109" s="52"/>
+      <c r="B109" s="8"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
+      <c r="AF109" s="2"/>
+      <c r="AG109" s="2"/>
+      <c r="AH109" s="2"/>
+      <c r="AI109" s="2"/>
+      <c r="AJ109" s="2"/>
+      <c r="AK109" s="2"/>
+      <c r="AL109" s="2"/>
+      <c r="AM109" s="8"/>
       <c r="AN109" s="7"/>
     </row>
     <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="50"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="50"/>
-      <c r="J110" s="51"/>
-      <c r="K110" s="51"/>
-      <c r="L110" s="51"/>
-      <c r="M110" s="51"/>
-      <c r="N110" s="51"/>
-      <c r="O110" s="51"/>
-      <c r="P110" s="51"/>
-      <c r="Q110" s="51"/>
-      <c r="R110" s="51"/>
-      <c r="S110" s="51"/>
-      <c r="T110" s="51"/>
-      <c r="U110" s="51"/>
-      <c r="V110" s="51"/>
-      <c r="W110" s="51"/>
-      <c r="X110" s="51"/>
-      <c r="Y110" s="51"/>
-      <c r="Z110" s="51"/>
-      <c r="AA110" s="51"/>
-      <c r="AB110" s="51"/>
-      <c r="AC110" s="51"/>
-      <c r="AD110" s="51"/>
-      <c r="AE110" s="51"/>
-      <c r="AF110" s="51"/>
-      <c r="AG110" s="51"/>
-      <c r="AH110" s="51"/>
-      <c r="AI110" s="51"/>
-      <c r="AJ110" s="51"/>
-      <c r="AK110" s="51"/>
-      <c r="AL110" s="51"/>
-      <c r="AM110" s="52"/>
+      <c r="B110" s="8"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
+      <c r="AF110" s="2"/>
+      <c r="AG110" s="2"/>
+      <c r="AH110" s="2"/>
+      <c r="AI110" s="2"/>
+      <c r="AJ110" s="2"/>
+      <c r="AK110" s="2"/>
+      <c r="AL110" s="2"/>
+      <c r="AM110" s="8"/>
       <c r="AN110" s="7"/>
     </row>
     <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
-      <c r="B111" s="52"/>
-      <c r="C111" s="50"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="51"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="51"/>
-      <c r="I111" s="50"/>
-      <c r="J111" s="51"/>
-      <c r="K111" s="51"/>
-      <c r="L111" s="51"/>
-      <c r="M111" s="51"/>
-      <c r="N111" s="51"/>
-      <c r="O111" s="51"/>
-      <c r="P111" s="51"/>
-      <c r="Q111" s="51"/>
-      <c r="R111" s="51"/>
-      <c r="S111" s="51"/>
-      <c r="T111" s="51"/>
-      <c r="U111" s="51"/>
-      <c r="V111" s="51"/>
-      <c r="W111" s="51"/>
-      <c r="X111" s="51"/>
-      <c r="Y111" s="51"/>
-      <c r="Z111" s="51"/>
-      <c r="AA111" s="51"/>
-      <c r="AB111" s="51"/>
-      <c r="AC111" s="51"/>
-      <c r="AD111" s="51"/>
-      <c r="AE111" s="51"/>
-      <c r="AF111" s="51"/>
-      <c r="AG111" s="51"/>
-      <c r="AH111" s="51"/>
-      <c r="AI111" s="51"/>
-      <c r="AJ111" s="51"/>
-      <c r="AK111" s="51"/>
-      <c r="AL111" s="51"/>
-      <c r="AM111" s="52"/>
+      <c r="B111" s="8"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+      <c r="AF111" s="2"/>
+      <c r="AG111" s="2"/>
+      <c r="AH111" s="2"/>
+      <c r="AI111" s="2"/>
+      <c r="AJ111" s="2"/>
+      <c r="AK111" s="2"/>
+      <c r="AL111" s="2"/>
+      <c r="AM111" s="8"/>
       <c r="AN111" s="7"/>
     </row>
     <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
-      <c r="B112" s="52"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="50"/>
-      <c r="J112" s="51"/>
-      <c r="K112" s="51"/>
-      <c r="L112" s="51"/>
-      <c r="M112" s="51"/>
-      <c r="N112" s="51"/>
-      <c r="O112" s="51"/>
-      <c r="P112" s="51"/>
-      <c r="Q112" s="51"/>
-      <c r="R112" s="51"/>
-      <c r="S112" s="51"/>
-      <c r="T112" s="51"/>
-      <c r="U112" s="51"/>
-      <c r="V112" s="51"/>
-      <c r="W112" s="51"/>
-      <c r="X112" s="51"/>
-      <c r="Y112" s="51"/>
-      <c r="Z112" s="51"/>
-      <c r="AA112" s="51"/>
-      <c r="AB112" s="51"/>
-      <c r="AC112" s="51"/>
-      <c r="AD112" s="51"/>
-      <c r="AE112" s="51"/>
-      <c r="AF112" s="51"/>
-      <c r="AG112" s="51"/>
-      <c r="AH112" s="51"/>
-      <c r="AI112" s="51"/>
-      <c r="AJ112" s="51"/>
-      <c r="AK112" s="51"/>
-      <c r="AL112" s="51"/>
-      <c r="AM112" s="52"/>
+      <c r="B112" s="8"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+      <c r="AF112" s="2"/>
+      <c r="AG112" s="2"/>
+      <c r="AH112" s="2"/>
+      <c r="AI112" s="2"/>
+      <c r="AJ112" s="2"/>
+      <c r="AK112" s="2"/>
+      <c r="AL112" s="2"/>
+      <c r="AM112" s="8"/>
       <c r="AN112" s="7"/>
     </row>
     <row r="113" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C70FFA-0399-422E-A547-D50C6DA97B54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCABE4DD-A964-4328-9DA8-D9922325D7C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,6 +960,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,7 +1004,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1005,10 +1034,16 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1020,43 +1055,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1153,14 +1153,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>47986</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>154744</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>130202</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>97016</xdr:rowOff>
+      <xdr:rowOff>97015</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1175,8 +1175,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4873986" y="1488244"/>
-          <a:ext cx="2114216" cy="2799772"/>
+          <a:off x="4873986" y="1850570"/>
+          <a:ext cx="2114216" cy="2437445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2558,231 +2558,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>53043</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>150156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>129243</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>143806</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="正方形/長方形 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F313D2B5-A0CB-43DC-A58B-FE469725512C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4879043" y="1509803"/>
-          <a:ext cx="2108200" cy="382121"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>125976</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>40704</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>109761</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>22882</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="グループ化 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C299BCD2-3405-43F4-841E-87AF384C22A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4951976" y="1564704"/>
-          <a:ext cx="237785" cy="172678"/>
-          <a:chOff x="6582064" y="8647545"/>
-          <a:chExt cx="415636" cy="374074"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="18" name="直線コネクタ 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1110BFD4-1FF3-46E6-AE0C-B7B934FD33BF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6582064" y="8647545"/>
-            <a:ext cx="415636" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="19" name="直線コネクタ 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7C6D44-C7F5-4E36-95B9-A7D1C53450F2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6582064" y="8834582"/>
-            <a:ext cx="415636" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="20" name="直線コネクタ 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51928758-72B7-485E-8051-136C1820BD16}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6582064" y="9021619"/>
-            <a:ext cx="415636" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5307,7 +5082,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>絞り込み画面に遷移する</a:t>
+            <a:t>絞り込みメニューを表示する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
@@ -5391,7 +5166,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>記述した検索条件を元にデータベースでデータを選択し、リスト画面に遷移し、その結果を表示させる</a:t>
+            <a:t>記述した検索条件を元にデータベースでデータを選択し、リスト画面に結果を表示させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
@@ -5996,8 +5771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R75" sqref="R75"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6006,158 +5781,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="45" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="45" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="41"/>
+      <c r="Y1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="50" t="s">
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="38" t="s">
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="50"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="41">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="53">
         <v>45083</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="51" t="s">
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="42">
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55">
         <v>45084</v>
       </c>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="44"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="47" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="37"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="48"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -6206,7 +5981,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -7630,7 +7405,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4"/>
@@ -9054,7 +8829,7 @@
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="4"/>
@@ -9140,63 +8915,63 @@
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="54"/>
-      <c r="D78" s="55" t="s">
+      <c r="C78" s="27"/>
+      <c r="D78" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="55" t="s">
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="57"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="58"/>
-      <c r="L78" s="55" t="s">
+      <c r="I78" s="30"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="56"/>
-      <c r="N78" s="58"/>
-      <c r="O78" s="55" t="s">
+      <c r="M78" s="29"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P78" s="56"/>
-      <c r="Q78" s="56"/>
-      <c r="R78" s="58"/>
-      <c r="S78" s="55" t="s">
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="31"/>
+      <c r="S78" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="T78" s="58"/>
-      <c r="U78" s="55" t="s">
+      <c r="T78" s="31"/>
+      <c r="U78" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V78" s="58"/>
-      <c r="W78" s="55" t="s">
+      <c r="V78" s="31"/>
+      <c r="W78" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="X78" s="56"/>
-      <c r="Y78" s="56"/>
-      <c r="Z78" s="58"/>
-      <c r="AA78" s="55" t="s">
+      <c r="X78" s="29"/>
+      <c r="Y78" s="29"/>
+      <c r="Z78" s="31"/>
+      <c r="AA78" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AB78" s="56"/>
-      <c r="AC78" s="58"/>
-      <c r="AD78" s="55" t="s">
+      <c r="AB78" s="29"/>
+      <c r="AC78" s="31"/>
+      <c r="AD78" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AE78" s="56"/>
-      <c r="AF78" s="56"/>
-      <c r="AG78" s="56"/>
-      <c r="AH78" s="56"/>
-      <c r="AI78" s="56"/>
-      <c r="AJ78" s="56"/>
-      <c r="AK78" s="56"/>
-      <c r="AL78" s="56"/>
+      <c r="AE78" s="29"/>
+      <c r="AF78" s="29"/>
+      <c r="AG78" s="29"/>
+      <c r="AH78" s="29"/>
+      <c r="AI78" s="29"/>
+      <c r="AJ78" s="29"/>
+      <c r="AK78" s="29"/>
+      <c r="AL78" s="29"/>
       <c r="AM78" s="18"/>
       <c r="AN78" s="7"/>
     </row>

--- a/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCABE4DD-A964-4328-9DA8-D9922325D7C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C1BB75-BB8C-426D-8730-94072FA48EDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5772,7 +5772,7 @@
   <dimension ref="A1:AN113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
